--- a/Example 5/output/Samples_table.xlsx
+++ b/Example 5/output/Samples_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Thesis\ColorMatching\Example 5\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4B3A6-BB37-418F-BBBF-3896C0755247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A1747-3062-467B-9729-FEDA03C4695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="4155" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="4155" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="980">
   <si>
     <t>No</t>
   </si>
@@ -40,955 +40,3511 @@
     <t>1</t>
   </si>
   <si>
-    <t>[ 0.087  0.066  0.052  0.044  0.038  0.034  0.031  0.029  0.028  0.028
-  0.028  0.03   0.03   0.03   0.03   0.029  0.031  0.038  0.043  0.045
-  0.045  0.046  0.045  0.047  0.051  0.063  0.089  0.139  0.213  0.306
+    <t>[ 0.284  0.248  0.222  0.205  0.196  0.192  0.192  0.201  0.214  0.241
+  0.29   0.364  0.458  0.554  0.637  0.695  0.733  0.755  0.765  0.77
+  0.773  0.773  0.772  0.772  0.771  0.773  0.775  0.773  0.775  0.774
+  0.775]</t>
+  </si>
+  <si>
+    <t>[ 60.74434686  60.47855796  22.47427295]</t>
+  </si>
+  <si>
+    <t>[ 0.00593456 -0.17191345 -0.00385115]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.     0.025]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[ 0.11   0.084  0.069  0.061  0.057  0.055  0.054  0.058  0.063  0.074
+  0.098  0.142  0.216  0.317  0.431  0.538  0.625  0.688  0.724  0.741
+  0.75   0.753  0.753  0.754  0.755  0.758  0.759  0.759  0.761  0.761
+  0.762]</t>
+  </si>
+  <si>
+    <t>[ 53.45822429  47.71623473   6.80002474]</t>
+  </si>
+  <si>
+    <t>[-0.07274329 -0.33179942 -0.23519158]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.     0.125]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>[ 0.054  0.04   0.032  0.028  0.025  0.024  0.024  0.026  0.028  0.034
+  0.046  0.07   0.116  0.191  0.294  0.408  0.518  0.609  0.669  0.7
+  0.716  0.722  0.725  0.727  0.729  0.733  0.736  0.738  0.74   0.74
+  0.742]</t>
+  </si>
+  <si>
+    <t>[ 48.33034838  39.97548035   3.11528341]</t>
+  </si>
+  <si>
+    <t>[-0.09656339 -0.33863417 -0.32238117]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.   0.3]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>[ 0.029  0.021  0.016  0.014  0.013  0.013  0.012  0.013  0.015  0.018
+  0.024  0.038  0.065  0.115  0.195  0.298  0.414  0.522  0.601  0.646
+  0.67   0.68   0.685  0.689  0.693  0.698  0.702  0.706  0.708  0.71
+  0.712]</t>
+  </si>
+  <si>
+    <t>[ 43.29526804  33.66093453   1.62408315]</t>
+  </si>
+  <si>
+    <t>[-0.11594184 -0.31152079 -0.36565681]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.   0.6]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.018  0.014  0.012  0.011  0.011  0.011  0.011  0.013  0.015
+  0.021  0.033  0.057  0.102  0.176  0.275  0.389  0.5    0.583  0.631
+  0.657  0.668  0.674  0.678  0.682  0.688  0.692  0.697  0.699  0.701
+  0.703]</t>
+  </si>
+  <si>
+    <t>[ 42.04621665  32.24946028   1.40138715]</t>
+  </si>
+  <si>
+    <t>[-0.12040813 -0.30320296 -0.37201753]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.   0.7]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>[ 0.473  0.478  0.461  0.428  0.381  0.332  0.286  0.251  0.221  0.198
+  0.181  0.174  0.168  0.167  0.171  0.18   0.215  0.314  0.466  0.595
+  0.677  0.72   0.741  0.753  0.759  0.764  0.768  0.769  0.771  0.771
+  0.773]</t>
+  </si>
+  <si>
+    <t>[ 46.1723148   33.65746363  35.2713667 ]</t>
+  </si>
+  <si>
+    <t>[ 0.11432939  0.12128607 -0.11499475]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.025  0.   ]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>[ 0.272  0.235  0.205  0.184  0.168  0.156  0.145  0.14   0.135  0.135
+  0.139  0.147  0.153  0.16   0.167  0.178  0.213  0.312  0.464  0.592
+  0.674  0.716  0.737  0.749  0.755  0.76   0.764  0.765  0.768  0.768
+  0.769]</t>
+  </si>
+  <si>
+    <t>[ 42.60582592  31.76747402  17.30531757]</t>
+  </si>
+  <si>
+    <t>[-0.04226562 -0.04108045 -0.25392083]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.025  0.025]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>[ 0.108  0.083  0.068  0.059  0.054  0.051  0.05   0.052  0.054  0.06
+  0.072  0.092  0.114  0.135  0.153  0.17   0.207  0.306  0.455  0.58
+  0.66   0.701  0.722  0.733  0.74   0.746  0.75   0.752  0.755  0.755
+  0.757]</t>
+  </si>
+  <si>
+    <t>[ 39.66842183  29.05624849   6.1038059 ]</t>
+  </si>
+  <si>
+    <t>[-0.12920373 -0.15110796 -0.34676237]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.025  0.125]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>[ 0.053  0.039  0.031  0.027  0.025  0.024  0.023  0.025  0.026  0.031
+  0.039  0.055  0.079  0.107  0.133  0.157  0.198  0.295  0.44   0.562
+  0.639  0.678  0.698  0.709  0.716  0.723  0.728  0.731  0.734  0.735
+  0.737]</t>
+  </si>
+  <si>
+    <t>[ 37.67677064  26.87331961   2.92023537]</t>
+  </si>
+  <si>
+    <t>[-0.14754942 -0.18996101 -0.37782374]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.025  0.3  ]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>[ 0.029  0.021  0.016  0.014  0.013  0.012  0.012  0.013  0.014  0.017
+  0.022  0.033  0.052  0.078  0.109  0.139  0.183  0.278  0.418  0.534
+  0.607  0.644  0.663  0.674  0.682  0.69   0.695  0.701  0.704  0.706
+  0.708]</t>
+  </si>
+  <si>
+    <t>[ 35.38257015  24.60002796   1.55570293]</t>
+  </si>
+  <si>
+    <t>[-0.15364917 -0.20782168 -0.39012764]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.025  0.6  ]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.018  0.014  0.012  0.011  0.011  0.011  0.011  0.012  0.014
+  0.019  0.029  0.046  0.072  0.103  0.134  0.179  0.273  0.411  0.525
+  0.598  0.634  0.653  0.664  0.672  0.68   0.685  0.691  0.695  0.697
+  0.699]</t>
+  </si>
+  <si>
+    <t>[ 34.74240263  24.01135675   1.34750132]</t>
+  </si>
+  <si>
+    <t>[-0.15464859 -0.21015825 -0.39130234]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.025  0.7  ]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>[ 0.363  0.323  0.269  0.214  0.165  0.126  0.098  0.08   0.066  0.056
+  0.05   0.047  0.045  0.045  0.046  0.049  0.062  0.11   0.218  0.361
+  0.494  0.586  0.645  0.681  0.703  0.72   0.732  0.739  0.746  0.748
+  0.752]</t>
+  </si>
+  <si>
+    <t>[ 30.74839061  18.33515788  14.93773037]</t>
+  </si>
+  <si>
+    <t>[-0.04453927 -0.046731   -0.27627481]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.125  0.   ]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>[ 0.236  0.195  0.16   0.131  0.108  0.089  0.074  0.064  0.056  0.05
+  0.046  0.045  0.044  0.044  0.046  0.049  0.062  0.109  0.218  0.361
+  0.493  0.584  0.643  0.679  0.7    0.717  0.729  0.736  0.743  0.746
+  0.749]</t>
+  </si>
+  <si>
+    <t>[ 29.73457367  18.02115861  10.18018661]</t>
+  </si>
+  <si>
+    <t>[-0.08781255 -0.09503101 -0.3198872 ]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.125  0.025]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>[ 0.102  0.077  0.062  0.052  0.046  0.041  0.038  0.036  0.034  0.034
+  0.035  0.038  0.04   0.042  0.045  0.048  0.062  0.109  0.216  0.357
+  0.487  0.576  0.633  0.668  0.689  0.706  0.717  0.725  0.732  0.734
+  0.738]</t>
+  </si>
+  <si>
+    <t>[ 28.35136292  17.36736451   4.7270495 ]</t>
+  </si>
+  <si>
+    <t>[-0.13763513 -0.14892943 -0.36555851]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.125  0.125]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>[ 0.052  0.038  0.03   0.026  0.023  0.021  0.02   0.02   0.021  0.022
+  0.025  0.03   0.035  0.039  0.043  0.047  0.061  0.107  0.213  0.352
+  0.478  0.564  0.618  0.651  0.671  0.687  0.698  0.707  0.714  0.717
+  0.72 ]</t>
+  </si>
+  <si>
+    <t>[ 27.35858877  16.71908904   2.5061989 ]</t>
+  </si>
+  <si>
+    <t>[-0.15678333 -0.17091369 -0.3810158 ]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.125  0.3  ]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.02   0.016  0.014  0.012  0.012  0.011  0.012  0.012  0.014
+  0.017  0.022  0.028  0.034  0.04   0.046  0.06   0.105  0.209  0.343
+  0.464  0.544  0.595  0.625  0.644  0.66   0.67   0.68   0.686  0.69
+  0.693]</t>
+  </si>
+  <si>
+    <t>[ 26.24382177  15.95005211   1.40647643]</t>
+  </si>
+  <si>
+    <t>[-0.16535788 -0.18240373 -0.3851136 ]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.125  0.6  ]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.018  0.014  0.012  0.011  0.01   0.01   0.01   0.011  0.012
+  0.015  0.02   0.026  0.033  0.039  0.045  0.059  0.105  0.207  0.34
+  0.46   0.538  0.587  0.617  0.636  0.651  0.662  0.672  0.678  0.682
+  0.685]</t>
+  </si>
+  <si>
+    <t>[ 25.9276992   15.73541389   1.22899489]</t>
+  </si>
+  <si>
+    <t>[-0.16664306 -0.18434702 -0.38497609]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.125  0.7  ]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>[ 0.264  0.213  0.161  0.118  0.085  0.061  0.046  0.037  0.03   0.025
+  0.022  0.021  0.02   0.02   0.02   0.022  0.028  0.052  0.117  0.228
+  0.357  0.465  0.545  0.599  0.635  0.662  0.682  0.697  0.709  0.715
+  0.721]</t>
+  </si>
+  <si>
+    <t>[ 22.95649616  12.63897533   7.88614461]</t>
+  </si>
+  <si>
+    <t>[-0.10235973 -0.12167551 -0.30531218]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.3  0. ]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>[ 0.192  0.15   0.115  0.088  0.067  0.051  0.04   0.033  0.027  0.024
+  0.021  0.02   0.02   0.02   0.02   0.022  0.028  0.052  0.117  0.227
+  0.357  0.464  0.544  0.597  0.633  0.66   0.68   0.695  0.707  0.712
+  0.718]</t>
+  </si>
+  <si>
+    <t>[ 22.58069915  12.54009749   6.24217232]</t>
+  </si>
+  <si>
+    <t>[-0.11797198 -0.13992516 -0.32225718]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.3    0.025]</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>[ 0.093  0.069  0.054  0.044  0.037  0.031  0.026  0.024  0.021  0.02
+  0.019  0.019  0.019  0.019  0.02   0.022  0.028  0.052  0.117  0.226
+  0.354  0.46   0.538  0.59   0.625  0.652  0.671  0.686  0.698  0.703
+  0.709]</t>
+  </si>
+  <si>
+    <t>[ 21.8626026   12.28196119   3.55499429]</t>
+  </si>
+  <si>
+    <t>[-0.14380113 -0.1684457  -0.34754533]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.3    0.125]</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>[ 0.049  0.036  0.028  0.023  0.02   0.018  0.016  0.016  0.015  0.015
+  0.015  0.017  0.018  0.018  0.02   0.021  0.028  0.052  0.116  0.224
+  0.35   0.453  0.529  0.579  0.612  0.638  0.656  0.671  0.683  0.688
+  0.694]</t>
+  </si>
+  <si>
+    <t>[ 21.25534457  11.98348555   2.09210048]</t>
+  </si>
+  <si>
+    <t>[-0.15777807 -0.1827581  -0.35863097]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.3  0.3]</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>[ 0.027  0.02   0.015  0.013  0.012  0.011  0.01   0.01   0.01   0.011
+  0.012  0.014  0.016  0.017  0.019  0.021  0.027  0.051  0.115  0.221
+  0.343  0.442  0.514  0.561  0.592  0.616  0.634  0.649  0.659  0.665
+  0.67 ]</t>
+  </si>
+  <si>
+    <t>[ 20.56704671  11.59954891   1.24802981]</t>
+  </si>
+  <si>
+    <t>[-0.16569715 -0.19022507 -0.36229977]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.3  0.6]</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.017  0.013  0.011  0.01   0.009  0.009  0.009  0.009  0.01
+  0.011  0.013  0.015  0.017  0.019  0.021  0.027  0.051  0.114  0.22
+  0.341  0.439  0.509  0.555  0.585  0.61   0.627  0.642  0.652  0.658
+  0.663]</t>
+  </si>
+  <si>
+    <t>[ 20.3719213   11.48828722   1.1023706 ]</t>
+  </si>
+  <si>
+    <t>[-0.16705608 -0.19139562 -0.36237659]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.3  0.7]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>[ 0.183  0.137  0.097  0.067  0.046  0.033  0.024  0.019  0.015  0.013
+  0.011  0.011  0.01   0.01   0.01   0.011  0.014  0.027  0.066  0.142
+  0.25   0.355  0.444  0.51   0.556  0.592  0.62   0.642  0.66   0.669
+  0.678]</t>
+  </si>
+  <si>
+    <t>[ 17.4076231    9.1281924    4.43816541]</t>
+  </si>
+  <si>
+    <t>[-0.13198899 -0.16302845 -0.3028394 ]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.6  0. ]</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>[ 0.146  0.108  0.078  0.056  0.041  0.03   0.022  0.018  0.015  0.013
+  0.011  0.011  0.01   0.01   0.01   0.011  0.014  0.027  0.066  0.142
+  0.25   0.355  0.444  0.508  0.554  0.591  0.618  0.641  0.658  0.667
+  0.676]</t>
+  </si>
+  <si>
+    <t>[ 17.2581473    9.0903154    3.83757792]</t>
+  </si>
+  <si>
+    <t>[-0.13805336 -0.17023845 -0.30969955]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.6    0.025]</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>[ 0.081  0.059  0.044  0.034  0.027  0.021  0.017  0.015  0.013  0.011
+  0.01   0.01   0.01   0.01   0.01   0.011  0.014  0.027  0.066  0.142
+  0.249  0.353  0.44   0.504  0.549  0.585  0.612  0.634  0.651  0.66
+  0.668]</t>
+  </si>
+  <si>
+    <t>[ 16.89229574   8.97429824   2.56537649]</t>
+  </si>
+  <si>
+    <t>[-0.15089887 -0.1846793  -0.32313372]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.6    0.125]</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>[ 0.046  0.033  0.025  0.02   0.017  0.014  0.012  0.011  0.01   0.01
+  0.009  0.009  0.009  0.01   0.01   0.011  0.014  0.027  0.066  0.141
+  0.247  0.349  0.435  0.497  0.54   0.575  0.601  0.623  0.639  0.648
+  0.656]</t>
+  </si>
+  <si>
+    <t>[ 16.52519732   8.82267894   1.67371461]</t>
+  </si>
+  <si>
+    <t>[-0.15991356 -0.19368341 -0.33100219]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.6  0.3]</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.019  0.014  0.012  0.01   0.009  0.008  0.008  0.008  0.008
+  0.008  0.008  0.009  0.009  0.01   0.011  0.014  0.027  0.065  0.139
+  0.243  0.343  0.426  0.484  0.526  0.559  0.584  0.605  0.621  0.629
+  0.637]</t>
+  </si>
+  <si>
+    <t>[ 16.09229183   8.61441469   1.07046363]</t>
+  </si>
+  <si>
+    <t>[-0.16608681 -0.19873192 -0.33469962]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.6  0.6]</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.016  0.013  0.011  0.009  0.008  0.008  0.007  0.007  0.007
+  0.007  0.008  0.009  0.009  0.01   0.011  0.014  0.027  0.065  0.139
+  0.242  0.341  0.423  0.481  0.522  0.554  0.578  0.6    0.615  0.623
+  0.631]</t>
+  </si>
+  <si>
+    <t>[ 15.96900852   8.55231103   0.95808818]</t>
+  </si>
+  <si>
+    <t>[-0.16726153 -0.19949413 -0.33507177]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.6  0.7]</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>[ 0.167  0.123  0.086  0.059  0.04   0.028  0.021  0.016  0.013  0.011
+  0.01   0.009  0.009  0.009  0.009  0.01   0.012  0.024  0.058  0.127
+  0.228  0.331  0.42   0.487  0.535  0.573  0.603  0.627  0.646  0.656
+  0.665]</t>
+  </si>
+  <si>
+    <t>[ 16.26431736   8.44895629   3.87945345]</t>
+  </si>
+  <si>
+    <t>[-0.13702372 -0.17000096 -0.30004874]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.7  0. ]</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>[ 0.135  0.099  0.071  0.05   0.036  0.026  0.02   0.016  0.013  0.011
+  0.01   0.009  0.009  0.009  0.009  0.01   0.012  0.024  0.058  0.126
+  0.228  0.33   0.42   0.486  0.534  0.572  0.602  0.625  0.645  0.654
+  0.664]</t>
+  </si>
+  <si>
+    <t>[ 16.14413124   8.41844005   3.40796731]</t>
+  </si>
+  <si>
+    <t>[-0.14186429 -0.17575896 -0.30556653]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.7    0.025]</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>[ 0.078  0.056  0.042  0.032  0.025  0.019  0.016  0.013  0.011  0.01
+  0.009  0.009  0.008  0.009  0.009  0.01   0.012  0.024  0.058  0.126
+  0.227  0.329  0.417  0.482  0.529  0.567  0.596  0.619  0.638  0.648
+  0.657]</t>
+  </si>
+  <si>
+    <t>[ 15.83503459   8.3220445    2.35515193]</t>
+  </si>
+  <si>
+    <t>[-0.15263715 -0.18788543 -0.31699293]</t>
+  </si>
+  <si>
+    <t>[ 0.     0.7    0.125]</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>[ 0.045  0.032  0.024  0.02   0.016  0.014  0.011  0.01   0.009  0.009
+  0.008  0.008  0.008  0.008  0.009  0.009  0.012  0.024  0.057  0.125
+  0.225  0.326  0.412  0.476  0.521  0.558  0.586  0.609  0.627  0.636
+  0.645]</t>
+  </si>
+  <si>
+    <t>[ 15.51231002   8.19280513   1.57433075]</t>
+  </si>
+  <si>
+    <t>[-0.16062809 -0.19584175 -0.32415889]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.7  0.3]</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.018  0.014  0.012  0.01   0.009  0.008  0.007  0.007  0.007
+  0.007  0.007  0.008  0.008  0.009  0.009  0.012  0.024  0.057  0.124
+  0.223  0.32   0.404  0.465  0.508  0.543  0.57   0.593  0.609  0.618
+  0.627]</t>
+  </si>
+  <si>
+    <t>[ 15.12683387   8.0127411    1.02500071]</t>
+  </si>
+  <si>
+    <t>[-0.16633698 -0.20041489 -0.32780916]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.7  0.6]</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.016  0.012  0.01   0.009  0.008  0.007  0.007  0.007  0.006
+  0.007  0.007  0.008  0.008  0.009  0.009  0.012  0.023  0.057  0.124
+  0.222  0.319  0.401  0.461  0.504  0.539  0.565  0.587  0.604  0.613
+  0.621]</t>
+  </si>
+  <si>
+    <t>[ 15.01682081   7.95871735   0.92063754]</t>
+  </si>
+  <si>
+    <t>[-0.16744871 -0.20110519 -0.32823477]</t>
+  </si>
+  <si>
+    <t>[ 0.   0.7  0.7]</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>[ 0.482  0.516  0.543  0.566  0.576  0.58   0.578  0.571  0.561  0.548
+  0.53   0.501  0.456  0.402  0.347  0.297  0.254  0.224  0.206  0.2
+  0.196  0.196  0.192  0.196  0.209  0.242  0.302  0.391  0.486  0.572
+  0.637]</t>
+  </si>
+  <si>
+    <t>[ 28.24107766  33.39305425  60.71867377]</t>
+  </si>
+  <si>
+    <t>[ 0.24332542  0.30883469  0.44214444]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.     0.   ]</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>[ 0.275  0.242  0.217  0.201  0.191  0.187  0.186  0.193  0.204  0.226
+  0.263  0.312  0.351  0.355  0.329  0.291  0.252  0.224  0.205  0.2
+  0.195  0.196  0.192  0.196  0.209  0.242  0.302  0.391  0.486  0.571
+  0.636]</t>
+  </si>
+  <si>
+    <t>[ 21.16111235  25.95480312  21.56054804]</t>
+  </si>
+  <si>
+    <t>[-0.05529455 -0.03315751  0.15615109]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.     0.025]</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>[ 0.108  0.084  0.069  0.061  0.056  0.054  0.054  0.057  0.062  0.073
+  0.095  0.134  0.191  0.248  0.275  0.268  0.243  0.22   0.204  0.199
+  0.195  0.195  0.191  0.196  0.208  0.241  0.301  0.389  0.483  0.567
+  0.63 ]</t>
+  </si>
+  <si>
+    <t>[ 17.81217558  19.9242278    6.66955476]</t>
+  </si>
+  <si>
+    <t>[-0.13111268 -0.21698933 -0.00981999]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.     0.125]</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>[ 0.053  0.039  0.032  0.027  0.025  0.024  0.024  0.026  0.028  0.034
+  0.045  0.068  0.109  0.165  0.215  0.237  0.23   0.215  0.201  0.197
+  0.194  0.194  0.19   0.195  0.207  0.24   0.299  0.386  0.478  0.559
+  0.62 ]</t>
+  </si>
+  <si>
+    <t>[ 16.39203888  16.72752375   3.0736451 ]</t>
+  </si>
+  <si>
+    <t>[-0.13838294 -0.2746591  -0.07619452]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.     0.3  ]</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[ 0.029  0.021  0.016  0.014  0.013  0.013  0.012  0.013  0.015  0.018
+  0.024  0.037  0.063  0.105  0.158  0.198  0.211  0.206  0.197  0.194
+  0.192  0.193  0.189  0.193  0.206  0.238  0.296  0.381  0.47   0.547
+  0.604]</t>
+  </si>
+  <si>
+    <t>[ 15.28552375  14.35926954   1.60793816]</t>
+  </si>
+  <si>
+    <t>[-0.14148274 -0.291534   -0.11845273]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.     0.6  ]</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.018  0.014  0.012  0.011  0.011  0.011  0.011  0.013  0.015
+  0.021  0.032  0.055  0.094  0.145  0.188  0.205  0.203  0.196  0.194
+  0.191  0.192  0.188  0.193  0.205  0.237  0.295  0.379  0.467  0.543
+  0.599]</t>
+  </si>
+  <si>
+    <t>[ 15.02976949  13.85428767   1.3884208 ]</t>
+  </si>
+  <si>
+    <t>[-0.14252215 -0.29186586 -0.12699881]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.     0.7  ]</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>[ 0.446  0.452  0.438  0.407  0.363  0.316  0.272  0.239  0.21   0.187
+  0.171  0.162  0.153  0.147  0.142  0.139  0.146  0.168  0.184  0.191
+  0.192  0.194  0.191  0.196  0.209  0.241  0.301  0.39   0.485  0.57
+  0.635]</t>
+  </si>
+  <si>
+    <t>[ 20.17493566  17.53756032  33.52577321]</t>
+  </si>
+  <si>
+    <t>[ 0.09681549  0.06887822  0.14036137]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.025  0.   ]</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>[ 0.265  0.23   0.201  0.181  0.165  0.152  0.142  0.137  0.131  0.13
+  0.133  0.139  0.141  0.141  0.14   0.138  0.145  0.168  0.184  0.191
+  0.192  0.194  0.191  0.195  0.208  0.241  0.301  0.39   0.484  0.569
+  0.633]</t>
+  </si>
+  <si>
+    <t>[ 17.05038883  15.93850272  16.89141171]</t>
+  </si>
+  <si>
+    <t>[-0.04851203 -0.08080695  0.01090337]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.025  0.025]</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>[ 0.107  0.082  0.067  0.059  0.054  0.051  0.05   0.051  0.053  0.059
+  0.071  0.088  0.107  0.121  0.13   0.133  0.143  0.166  0.183  0.19
+  0.191  0.194  0.19   0.195  0.208  0.24   0.3    0.388  0.481  0.565
+  0.627]</t>
+  </si>
+  <si>
+    <t>[ 14.91415535  13.8787038    6.03953866]</t>
+  </si>
+  <si>
+    <t>[-0.13364743 -0.18578458 -0.08324617]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.025  0.125]</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>[ 0.053  0.039  0.031  0.027  0.025  0.024  0.023  0.024  0.026  0.03
+  0.039  0.054  0.075  0.098  0.115  0.125  0.138  0.163  0.181  0.189
+  0.19   0.193  0.19   0.194  0.207  0.239  0.298  0.385  0.476  0.557
+  0.618]</t>
+  </si>
+  <si>
+    <t>[ 14.08253947  12.54012593   2.90012456]</t>
+  </si>
+  <si>
+    <t>[-0.15192311 -0.22315132 -0.12202169]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.025  0.3  ]</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.021  0.016  0.014  0.013  0.012  0.012  0.013  0.014  0.017
+  0.022  0.033  0.05   0.074  0.097  0.114  0.131  0.158  0.177  0.186
+  0.188  0.191  0.188  0.193  0.205  0.237  0.295  0.38   0.468  0.545
+  0.602]</t>
+  </si>
+  <si>
+    <t>[ 13.46306465  11.40987353   1.54752564]</t>
+  </si>
+  <si>
+    <t>[-0.15734126 -0.24063181 -0.14752839]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.025  0.6  ]</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.018  0.014  0.012  0.011  0.011  0.011  0.011  0.012  0.014
+  0.019  0.029  0.045  0.068  0.092  0.11   0.129  0.156  0.176  0.186
+  0.188  0.19   0.188  0.192  0.205  0.237  0.294  0.379  0.466  0.541
+  0.597]</t>
+  </si>
+  <si>
+    <t>[ 13.31608196  11.14937777   1.34079592]</t>
+  </si>
+  <si>
+    <t>[-0.15808173 -0.24293904 -0.15281572]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.025  0.7  ]</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>[ 0.348  0.313  0.262  0.209  0.161  0.124  0.096  0.079  0.065  0.055
+  0.049  0.046  0.044  0.043  0.044  0.046  0.055  0.085  0.13   0.164
+  0.179  0.187  0.187  0.193  0.206  0.239  0.299  0.386  0.479  0.562
+  0.625]</t>
+  </si>
+  <si>
+    <t>[ 13.68167351   9.2802204   14.63147073]</t>
+  </si>
+  <si>
+    <t>[-0.04960259 -0.07676616 -0.04501343]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.125  0.   ]</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>[ 0.23   0.191  0.157  0.13   0.107  0.088  0.073  0.063  0.055  0.049
+  0.045  0.044  0.043  0.043  0.043  0.045  0.055  0.085  0.13   0.164
+  0.179  0.187  0.187  0.193  0.206  0.239  0.298  0.386  0.479  0.561
+  0.624]</t>
+  </si>
+  <si>
+    <t>[ 12.78084433   9.01532795  10.04420835]</t>
+  </si>
+  <si>
+    <t>[-0.0911726  -0.12307094 -0.08780023]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.125  0.025]</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>[ 0.101  0.077  0.062  0.052  0.046  0.041  0.037  0.036  0.034  0.034
+  0.035  0.037  0.039  0.041  0.042  0.045  0.055  0.084  0.13   0.163
+  0.178  0.187  0.187  0.192  0.206  0.238  0.297  0.384  0.476  0.557
+  0.618]</t>
+  </si>
+  <si>
+    <t>[ 11.72538449   8.52971923   4.69660261]</t>
+  </si>
+  <si>
+    <t>[-0.13982555 -0.17567289 -0.13639904]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.125  0.125]</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>[ 0.051  0.038  0.03   0.026  0.023  0.021  0.02   0.02   0.021  0.022
+  0.025  0.03   0.034  0.038  0.041  0.044  0.054  0.084  0.129  0.162
+  0.177  0.186  0.186  0.191  0.205  0.237  0.295  0.381  0.471  0.55
+  0.609]</t>
+  </si>
+  <si>
+    <t>[ 11.24126132   8.14710564   2.49659209]</t>
+  </si>
+  <si>
+    <t>[-0.15860541 -0.19719998 -0.15826941]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.125  0.3  ]</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.02   0.016  0.014  0.012  0.012  0.011  0.012  0.012  0.014
+  0.017  0.022  0.028  0.033  0.038  0.042  0.053  0.082  0.127  0.16
+  0.176  0.184  0.184  0.19   0.203  0.235  0.292  0.376  0.463  0.538
+  0.593]</t>
+  </si>
+  <si>
+    <t>[ 10.90998663   7.78679831   1.40284288]</t>
+  </si>
+  <si>
+    <t>[-0.16687198 -0.20815291 -0.1726249 ]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.125  0.6  ]</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.017  0.014  0.012  0.011  0.01   0.01   0.01   0.011  0.012
+  0.015  0.02   0.026  0.032  0.038  0.042  0.052  0.082  0.126  0.16
+  0.175  0.184  0.184  0.189  0.203  0.234  0.291  0.375  0.461  0.535
+  0.589]</t>
+  </si>
+  <si>
+    <t>[ 10.83504954   7.6980903    1.22606302]</t>
+  </si>
+  <si>
+    <t>[-0.16807591 -0.20991704 -0.1756723 ]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.125  0.7  ]</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>[ 0.257  0.209  0.159  0.116  0.084  0.061  0.046  0.036  0.029  0.025
+  0.022  0.021  0.02   0.019  0.02   0.021  0.026  0.046  0.087  0.131
+  0.16   0.176  0.181  0.188  0.203  0.235  0.294  0.38   0.47   0.549
+  0.609]</t>
+  </si>
+  <si>
+    <t>[ 10.7033291    6.50481962   7.79612767]</t>
+  </si>
+  <si>
+    <t>[-0.10689917 -0.13627596 -0.11123145]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.3    0.   ]</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>[ 0.188  0.148  0.114  0.087  0.066  0.051  0.04   0.033  0.027  0.024
+  0.021  0.02   0.019  0.019  0.02   0.021  0.026  0.046  0.087  0.131
+  0.16   0.176  0.181  0.188  0.203  0.235  0.293  0.379  0.469  0.548
+  0.608]</t>
+  </si>
+  <si>
+    <t>[ 10.37828301   6.42797171   6.18871654]</t>
+  </si>
+  <si>
+    <t>[-0.12205261 -0.15403106 -0.12831827]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.3    0.025]</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>[ 0.092  0.069  0.054  0.044  0.036  0.031  0.026  0.023  0.021  0.019
+  0.019  0.019  0.019  0.019  0.02   0.021  0.026  0.046  0.086  0.131
+  0.16   0.176  0.18   0.188  0.202  0.234  0.292  0.378  0.467  0.544
+  0.602]</t>
+  </si>
+  <si>
+    <t>[ 9.83705378  6.25289077  3.53831278]</t>
+  </si>
+  <si>
+    <t>[-0.147322   -0.18218231 -0.15572808]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.3    0.125]</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>[ 0.049  0.036  0.028  0.023  0.02   0.018  0.016  0.016  0.015  0.015
+  0.015  0.017  0.017  0.018  0.019  0.021  0.026  0.045  0.086  0.13
+  0.159  0.175  0.179  0.187  0.201  0.233  0.291  0.375  0.462  0.538
+  0.594]</t>
+  </si>
+  <si>
+    <t>[ 9.51529874  6.09142985  2.08612247]</t>
+  </si>
+  <si>
+    <t>[-0.16096519 -0.19655039 -0.17109604]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.3    0.3  ]</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>[ 0.027  0.02   0.015  0.013  0.012  0.011  0.01   0.01   0.01   0.011
+  0.012  0.014  0.016  0.017  0.019  0.02   0.026  0.045  0.085  0.129
+  0.158  0.174  0.178  0.186  0.2    0.231  0.288  0.37   0.454  0.527
+  0.58 ]</t>
+  </si>
+  <si>
+    <t>[ 9.27892119  5.92539406  1.24571171]</t>
+  </si>
+  <si>
+    <t>[-0.16853061 -0.20417064 -0.18182589]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.3    0.6  ]</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.017  0.013  0.011  0.01   0.009  0.009  0.009  0.009  0.01
+  0.011  0.013  0.015  0.017  0.018  0.02   0.026  0.045  0.085  0.128
+  0.157  0.173  0.178  0.185  0.199  0.231  0.287  0.368  0.452  0.523
+  0.575]</t>
+  </si>
+  <si>
+    <t>[ 9.22565383  5.88269997  1.10050886]</t>
+  </si>
+  <si>
+    <t>[-0.16979211 -0.20537342 -0.18414596]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.3    0.7  ]</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>[ 0.18   0.135  0.096  0.066  0.046  0.033  0.024  0.019  0.015  0.013
+  0.011  0.011  0.01   0.01   0.01   0.011  0.014  0.026  0.055  0.098
+  0.136  0.16   0.171  0.181  0.197  0.229  0.286  0.369  0.455  0.529
+  0.584]</t>
+  </si>
+  <si>
+    <t>[ 8.69838595  4.93007503  4.40807611]</t>
+  </si>
+  <si>
+    <t>[-0.13638081 -0.16905982 -0.14614841]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.6    0.   ]</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>[ 0.144  0.107  0.078  0.056  0.04   0.03   0.022  0.018  0.015  0.012
+  0.011  0.01   0.01   0.01   0.01   0.011  0.014  0.026  0.055  0.098
+  0.136  0.16   0.171  0.181  0.196  0.229  0.286  0.368  0.454  0.528
+  0.583]</t>
+  </si>
+  <si>
+    <t>[ 8.57483088  4.90357526  3.81614394]</t>
+  </si>
+  <si>
+    <t>[-0.14229632 -0.17615517 -0.15326796]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.6    0.025]</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>[ 0.08   0.059  0.044  0.034  0.027  0.021  0.017  0.015  0.013  0.011
+  0.01   0.01   0.01   0.01   0.01   0.011  0.014  0.026  0.055  0.098
+  0.136  0.16   0.17   0.181  0.196  0.228  0.285  0.367  0.452  0.524
+  0.578]</t>
+  </si>
+  <si>
+    <t>[ 8.30657174  4.83181007  2.5564898 ]</t>
+  </si>
+  <si>
+    <t>[-0.15486706 -0.19054731 -0.16814585]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.6    0.125]</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>[ 0.046  0.033  0.025  0.02   0.017  0.014  0.012  0.011  0.01   0.009
+  0.009  0.009  0.009  0.01   0.01   0.011  0.014  0.025  0.055  0.097
+  0.135  0.159  0.169  0.18   0.195  0.227  0.283  0.364  0.447  0.518
+  0.571]</t>
+  </si>
+  <si>
+    <t>[ 8.10135154  4.75467923  1.66999306]</t>
+  </si>
+  <si>
+    <t>[-0.16364293 -0.19972635 -0.17877549]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.6    0.3  ]</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.019  0.014  0.012  0.01   0.009  0.008  0.008  0.008  0.008
+  0.008  0.008  0.009  0.009  0.01   0.011  0.014  0.025  0.054  0.097
+  0.134  0.158  0.168  0.179  0.194  0.225  0.28   0.36   0.44   0.509
+  0.558]</t>
+  </si>
+  <si>
+    <t>[ 7.92980507  4.66725823  1.06889591]</t>
+  </si>
+  <si>
+    <t>[-0.16952468 -0.2050915  -0.18712514]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.6    0.6  ]</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.016  0.013  0.011  0.009  0.008  0.008  0.007  0.007  0.007
+  0.007  0.008  0.009  0.009  0.01   0.011  0.014  0.025  0.054  0.096
+  0.134  0.158  0.168  0.178  0.193  0.225  0.279  0.358  0.438  0.505
+  0.554]</t>
+  </si>
+  <si>
+    <t>[ 7.88974329  4.64371718  0.95681521]</t>
+  </si>
+  <si>
+    <t>[-0.17061521 -0.205945   -0.18900227]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.6    0.7  ]</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>[ 0.164  0.121  0.085  0.058  0.04   0.028  0.021  0.016  0.013  0.011
+  0.01   0.009  0.009  0.009  0.009  0.009  0.012  0.022  0.049  0.09
+  0.129  0.156  0.168  0.179  0.195  0.227  0.283  0.365  0.45   0.522
+  0.576]</t>
+  </si>
+  <si>
+    <t>[ 8.28618154  4.63241564  3.85619268]</t>
+  </si>
+  <si>
+    <t>[-0.14133356 -0.17464495 -0.15223045]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.7    0.   ]</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>[ 0.134  0.098  0.07   0.05   0.036  0.026  0.019  0.016  0.013  0.011
+  0.01   0.009  0.009  0.009  0.009  0.009  0.012  0.022  0.049  0.09
+  0.129  0.155  0.167  0.179  0.195  0.227  0.283  0.365  0.449  0.521
+  0.575]</t>
+  </si>
+  <si>
+    <t>[ 8.18812818  4.61162126  3.39082579]</t>
+  </si>
+  <si>
+    <t>[-0.14605909 -0.18032669 -0.15800199]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.7    0.025]</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>[ 0.077  0.056  0.042  0.032  0.025  0.019  0.016  0.013  0.011  0.01
+  0.009  0.009  0.008  0.008  0.009  0.009  0.012  0.022  0.049  0.09
+  0.129  0.155  0.167  0.178  0.194  0.226  0.282  0.363  0.447  0.518
+  0.571]</t>
+  </si>
+  <si>
+    <t>[ 7.96325508  4.55319302  2.34758823]</t>
+  </si>
+  <si>
+    <t>[-0.15660061 -0.19244002 -0.17073421]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.7    0.125]</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>[ 0.044  0.032  0.024  0.019  0.016  0.013  0.011  0.01   0.009  0.008
+  0.008  0.008  0.008  0.008  0.009  0.009  0.012  0.022  0.049  0.09
+  0.129  0.154  0.166  0.178  0.193  0.225  0.281  0.361  0.443  0.512
+  0.563]</t>
+  </si>
+  <si>
+    <t>[ 7.78095493  4.48808345  1.57103675]</t>
+  </si>
+  <si>
+    <t>[-0.16437549 -0.20057456 -0.18037028]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.7    0.3  ]</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.018  0.014  0.012  0.01   0.009  0.008  0.007  0.007  0.007
+  0.007  0.007  0.008  0.008  0.009  0.009  0.012  0.022  0.049  0.089
+  0.128  0.153  0.165  0.176  0.192  0.224  0.278  0.356  0.436  0.503
+  0.551]</t>
+  </si>
+  <si>
+    <t>[ 7.62311832  4.41245878  1.02357822]</t>
+  </si>
+  <si>
+    <t>[-0.16981359 -0.20546593 -0.18819641]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.7    0.6  ]</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.016  0.012  0.01   0.009  0.008  0.007  0.007  0.007  0.006
+  0.007  0.007  0.008  0.008  0.009  0.009  0.012  0.022  0.049  0.089
+  0.127  0.153  0.165  0.176  0.191  0.223  0.277  0.355  0.434  0.5
+  0.547]</t>
+  </si>
+  <si>
+    <t>[ 7.58580292  4.39185718  0.91947763]</t>
+  </si>
+  <si>
+    <t>[-0.17084639 -0.20624975 -0.18997744]</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.7    0.7  ]</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>[ 0.389  0.415  0.431  0.435  0.427  0.41   0.389  0.368  0.344  0.32
+  0.294  0.259  0.213  0.167  0.129  0.1    0.079  0.066  0.059  0.056
+  0.055  0.055  0.054  0.055  0.06   0.074  0.103  0.158  0.237  0.332
+  0.425]</t>
+  </si>
+  <si>
+    <t>[ 13.01429135  14.47521607  42.37878721]</t>
+  </si>
+  <si>
+    <t>[ 0.13239528  0.17799443  0.22651407]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.     0.   ]</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>[ 0.246  0.221  0.2    0.186  0.175  0.169  0.165  0.168  0.171  0.18
+  0.194  0.203  0.19   0.16   0.127  0.1    0.079  0.066  0.059  0.056
+  0.055  0.055  0.053  0.055  0.06   0.074  0.103  0.158  0.237  0.332
+  0.424]</t>
+  </si>
+  <si>
+    <t>[  8.81807941  11.45056639  18.96944085]</t>
+  </si>
+  <si>
+    <t>[-0.0645095  -0.01786315  0.06373302]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.     0.025]</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>[ 0.104  0.081  0.067  0.059  0.055  0.053  0.052  0.055  0.059  0.068
+  0.085  0.11   0.133  0.135  0.119  0.097  0.078  0.066  0.059  0.056
+  0.055  0.055  0.053  0.055  0.06   0.074  0.103  0.158  0.236  0.33
+  0.422]</t>
+  </si>
+  <si>
+    <t>[ 6.46273685  8.5138035   6.32644522]</t>
+  </si>
+  <si>
+    <t>[-0.15340008 -0.14346063 -0.04522869]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.     0.125]</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>[ 0.052  0.039  0.031  0.027  0.025  0.024  0.024  0.025  0.027  0.032
+  0.043  0.061  0.087  0.107  0.107  0.093  0.077  0.065  0.058  0.056
+  0.055  0.055  0.053  0.055  0.06   0.074  0.103  0.158  0.235  0.328
+  0.419]</t>
+  </si>
+  <si>
+    <t>[ 5.69975883  7.01103824  2.97127652]</t>
+  </si>
+  <si>
+    <t>[-0.1679545  -0.19050445 -0.08756688]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.     0.3  ]</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.02   0.016  0.014  0.013  0.012  0.012  0.013  0.014  0.017
+  0.023  0.035  0.055  0.078  0.091  0.087  0.075  0.065  0.058  0.056
+  0.055  0.055  0.053  0.055  0.06   0.073  0.102  0.157  0.234  0.325
+  0.413]</t>
+  </si>
+  <si>
+    <t>[ 5.25225451  5.95752362  1.5683735 ]</t>
+  </si>
+  <si>
+    <t>[-0.17022354 -0.21545171 -0.11231003]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.     0.6  ]</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.018  0.014  0.012  0.011  0.011  0.011  0.011  0.012  0.015
+  0.02   0.031  0.049  0.072  0.086  0.085  0.074  0.064  0.058  0.056
+  0.055  0.055  0.053  0.055  0.06   0.073  0.102  0.157  0.233  0.324
+  0.412]</t>
+  </si>
+  <si>
+    <t>[ 5.16281933  5.74037403  1.35640926]</t>
+  </si>
+  <si>
+    <t>[-0.17027324 -0.21949002 -0.11699383]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.     0.7  ]</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>[ 0.367  0.376  0.367  0.342  0.305  0.266  0.229  0.201  0.175  0.155
+  0.139  0.128  0.113  0.099  0.085  0.073  0.065  0.061  0.057  0.056
+  0.055  0.055  0.053  0.055  0.06   0.074  0.103  0.158  0.237  0.331
+  0.424]</t>
+  </si>
+  <si>
+    <t>[  9.98738159   9.31074383  28.12560301]</t>
+  </si>
+  <si>
+    <t>[ 0.0440307   0.04633897  0.10352779]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.025  0.   ]</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>[ 0.238  0.211  0.187  0.168  0.153  0.14   0.129  0.123  0.117  0.114
+  0.113  0.113  0.107  0.096  0.084  0.073  0.065  0.06   0.057  0.056
+  0.055  0.055  0.053  0.055  0.06   0.074  0.103  0.158  0.236  0.331
+  0.424]</t>
+  </si>
+  <si>
+    <t>[  7.62586447   8.18919331  15.44325719]</t>
+  </si>
+  <si>
+    <t>[-0.06760091 -0.06687805  0.00618971]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.025  0.025]</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>[ 0.102  0.08   0.066  0.057  0.053  0.05   0.048  0.049  0.051  0.056
+  0.065  0.077  0.086  0.087  0.081  0.072  0.064  0.06   0.057  0.056
+  0.055  0.055  0.053  0.055  0.06   0.074  0.103  0.158  0.236  0.33
+  0.422]</t>
+  </si>
+  <si>
+    <t>[ 5.83234067  6.70981719  5.81161139]</t>
+  </si>
+  <si>
+    <t>[-0.14597017 -0.15716898 -0.07246713]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.025  0.125]</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>[ 0.052  0.038  0.031  0.027  0.025  0.023  0.023  0.024  0.026  0.029
+  0.037  0.05   0.064  0.074  0.075  0.069  0.063  0.06   0.057  0.056
+  0.054  0.055  0.053  0.055  0.06   0.074  0.103  0.157  0.235  0.328
+  0.418]</t>
+  </si>
+  <si>
+    <t>[ 5.21754477  5.81537299  2.83212068]</t>
+  </si>
+  <si>
+    <t>[-0.16520399 -0.19125066 -0.10377336]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.025  0.3  ]</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.02   0.016  0.014  0.013  0.012  0.012  0.013  0.014  0.016
+  0.021  0.031  0.045  0.059  0.067  0.066  0.062  0.059  0.056  0.055
+  0.054  0.055  0.053  0.055  0.06   0.073  0.102  0.157  0.233  0.325
+  0.413]</t>
+  </si>
+  <si>
+    <t>[ 4.87016806  5.13046445  1.5211581 ]</t>
+  </si>
+  <si>
+    <t>[-0.17080559 -0.20986121 -0.12280457]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.025  0.6  ]</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.018  0.014  0.012  0.011  0.011  0.01   0.011  0.012  0.014
+  0.019  0.027  0.041  0.056  0.064  0.064  0.061  0.059  0.056  0.055
+  0.054  0.055  0.053  0.055  0.06   0.073  0.102  0.156  0.233  0.324
+  0.411]</t>
+  </si>
+  <si>
+    <t>[ 4.80205477  4.98277585  1.31935518]</t>
+  </si>
+  <si>
+    <t>[-0.17137412 -0.21302532 -0.12652042]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.025  0.7  ]</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>[ 0.301  0.277  0.238  0.192  0.15   0.116  0.09   0.074  0.061  0.052
+  0.046  0.043  0.04   0.038  0.036  0.035  0.037  0.045  0.051  0.053
+  0.054  0.054  0.053  0.055  0.06   0.074  0.103  0.158  0.235  0.329
+  0.421]</t>
+  </si>
+  <si>
+    <t>[  6.50912956   4.91523002  13.53444068]</t>
+  </si>
+  <si>
+    <t>[-0.0648525  -0.08105182 -0.02850124]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.125  0.   ]</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>[ 0.21   0.178  0.148  0.123  0.102  0.084  0.07   0.06   0.052  0.047
+  0.043  0.041  0.039  0.037  0.036  0.035  0.037  0.045  0.051  0.053
+  0.054  0.054  0.053  0.055  0.06   0.074  0.103  0.157  0.235  0.329
+  0.42 ]</t>
+  </si>
+  <si>
+    <t>[ 5.73298881  4.68713384  9.53640828]</t>
+  </si>
+  <si>
+    <t>[-0.1007902  -0.12080612 -0.06487199]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.125  0.025]</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>[ 0.097  0.075  0.06   0.051  0.045  0.04   0.037  0.035  0.033  0.033
+  0.033  0.035  0.036  0.036  0.035  0.035  0.037  0.045  0.05   0.053
+  0.053  0.054  0.053  0.055  0.06   0.073  0.102  0.157  0.235  0.328
+  0.418]</t>
+  </si>
+  <si>
+    <t>[ 4.78594402  4.26660887  4.5793393 ]</t>
+  </si>
+  <si>
+    <t>[-0.14563408 -0.16924491 -0.10860598]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.125  0.125]</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>[ 0.05   0.037  0.03   0.025  0.023  0.021  0.02   0.02   0.02   0.021
+  0.024  0.028  0.032  0.034  0.034  0.034  0.037  0.045  0.05   0.053
+  0.053  0.054  0.053  0.055  0.06   0.073  0.102  0.157  0.234  0.326
+  0.415]</t>
+  </si>
+  <si>
+    <t>[ 4.37536497  3.95152254  2.45948568]</t>
+  </si>
+  <si>
+    <t>[-0.16371754 -0.19019874 -0.12821331]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.125  0.3  ]</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.02   0.016  0.014  0.012  0.012  0.011  0.012  0.012  0.014
+  0.016  0.021  0.026  0.03   0.033  0.033  0.036  0.044  0.05   0.053
+  0.053  0.054  0.053  0.055  0.06   0.073  0.102  0.156  0.232  0.323
+  0.41 ]</t>
+  </si>
+  <si>
+    <t>[ 4.14622908  3.68081342  1.38894297]</t>
+  </si>
+  <si>
+    <t>[-0.17175914 -0.20148737 -0.14014944]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.125  0.6  ]</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.017  0.014  0.012  0.011  0.01   0.01   0.01   0.011  0.012
+  0.015  0.019  0.025  0.029  0.032  0.033  0.036  0.044  0.05   0.053
+  0.053  0.054  0.053  0.055  0.06   0.073  0.102  0.156  0.232  0.322
+  0.408]</t>
+  </si>
+  <si>
+    <t>[ 4.1036217   3.61886256  1.2148873 ]</t>
+  </si>
+  <si>
+    <t>[-0.17291235 -0.20343137 -0.14251967]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.125  0.7  ]</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>[ 0.232  0.194  0.15   0.111  0.081  0.059  0.044  0.035  0.029  0.024
+  0.021  0.02   0.019  0.018  0.018  0.019  0.022  0.031  0.042  0.049
+  0.052  0.053  0.053  0.054  0.06   0.073  0.102  0.157  0.234  0.326
+  0.415]</t>
+  </si>
+  <si>
+    <t>[ 4.86173579  3.28362515  7.45896351]</t>
+  </si>
+  <si>
+    <t>[-0.11482041 -0.13361221 -0.08700732]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.3    0.   ]</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>[ 0.175  0.14   0.109  0.084  0.064  0.05   0.039  0.032  0.027  0.023
+  0.021  0.02   0.019  0.018  0.018  0.018  0.022  0.031  0.042  0.049
+  0.052  0.053  0.053  0.054  0.06   0.073  0.102  0.156  0.233  0.325
+  0.415]</t>
+  </si>
+  <si>
+    <t>[ 4.56924128  3.21503113  5.9846386 ]</t>
+  </si>
+  <si>
+    <t>[-0.12848543 -0.14957656 -0.10212147]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.3    0.025]</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>[ 0.089  0.067  0.053  0.043  0.036  0.03   0.026  0.023  0.021  0.019
+  0.018  0.018  0.018  0.018  0.018  0.018  0.022  0.031  0.042  0.049
+  0.052  0.053  0.053  0.054  0.06   0.073  0.102  0.156  0.233  0.324
+  0.413]</t>
+  </si>
+  <si>
+    <t>[ 4.07773605  3.06058498  3.47321892]</t>
+  </si>
+  <si>
+    <t>[-0.15214536 -0.17608963 -0.12706831]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.3    0.125]</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>[ 0.048  0.035  0.028  0.023  0.02   0.018  0.016  0.015  0.015  0.015
+  0.015  0.016  0.017  0.017  0.018  0.018  0.021  0.031  0.042  0.049
+  0.052  0.053  0.053  0.054  0.059  0.073  0.102  0.156  0.232  0.323
+  0.41 ]</t>
+  </si>
+  <si>
+    <t>[ 3.80248117  2.92626298  2.06261647]</t>
+  </si>
+  <si>
+    <t>[-0.16525475 -0.19034067 -0.14085864]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.3    0.3  ]</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>[ 0.027  0.019  0.015  0.013  0.012  0.011  0.01   0.01   0.01   0.01
+  0.012  0.013  0.015  0.016  0.017  0.018  0.021  0.031  0.042  0.049
+  0.051  0.053  0.052  0.054  0.059  0.073  0.101  0.155  0.23   0.319
+  0.404]</t>
+  </si>
+  <si>
+    <t>[ 3.63382041  2.80140809  1.23658496]</t>
+  </si>
+  <si>
+    <t>[-0.17253623 -0.19843113 -0.1497369 ]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.3    0.6  ]</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.017  0.013  0.011  0.01   0.009  0.009  0.009  0.009  0.01
+  0.011  0.013  0.015  0.016  0.017  0.018  0.021  0.031  0.042  0.049
+  0.051  0.053  0.052  0.054  0.059  0.073  0.101  0.155  0.23   0.318
+  0.403]</t>
+  </si>
+  <si>
+    <t>[ 3.60225911  2.77179191  1.09318195]</t>
+  </si>
+  <si>
+    <t>[-0.17373505 -0.19981425 -0.1515188 ]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.3    0.7  ]</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>[ 0.167  0.129  0.093  0.065  0.045  0.032  0.024  0.019  0.015  0.013
+  0.011  0.01   0.01   0.01   0.01   0.01   0.013  0.02   0.033  0.044
+  0.049  0.052  0.052  0.054  0.059  0.073  0.101  0.155  0.23   0.32
+  0.406]</t>
+  </si>
+  <si>
+    <t>[ 3.86605591  2.41765991  4.29262554]</t>
+  </si>
+  <si>
+    <t>[-0.14211544 -0.16228568 -0.12006806]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.6    0.   ]</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>[ 0.136  0.103  0.075  0.055  0.04   0.029  0.022  0.018  0.014  0.012
+  0.011  0.01   0.01   0.01   0.01   0.01   0.012  0.02   0.033  0.044
+  0.049  0.052  0.052  0.054  0.059  0.073  0.101  0.155  0.23   0.32
+  0.406]</t>
+  </si>
+  <si>
+    <t>[ 3.75331822  2.39432903  3.73316795]</t>
+  </si>
+  <si>
+    <t>[-0.14758198 -0.16887151 -0.1264854 ]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.6    0.025]</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>[ 0.078  0.057  0.043  0.034  0.027  0.021  0.017  0.015  0.012  0.011
+  0.01   0.01   0.01   0.01   0.01   0.01   0.012  0.02   0.033  0.044
+  0.049  0.052  0.052  0.054  0.059  0.073  0.101  0.155  0.23   0.319
+  0.404]</t>
+  </si>
+  <si>
+    <t>[ 3.51125226  2.33296114  2.52160184]</t>
+  </si>
+  <si>
+    <t>[-0.15947432 -0.18269562 -0.1400402 ]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.6    0.125]</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>[ 0.045  0.032  0.025  0.02   0.017  0.014  0.012  0.011  0.01   0.009
+  0.009  0.009  0.009  0.009  0.01   0.01   0.012  0.02   0.033  0.044
+  0.049  0.052  0.052  0.054  0.059  0.072  0.101  0.154  0.229  0.317
   0.401]</t>
   </si>
   <si>
-    <t>[ 4.08562447  3.62363734  3.91057473]</t>
-  </si>
-  <si>
-    <t>[-0.15109471 -0.17342129 -0.11679306]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.15  0.15]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>[ 0.045  0.033  0.026  0.022  0.02   0.018  0.017  0.017  0.017  0.018
-  0.021  0.024  0.027  0.028  0.029  0.029  0.031  0.038  0.043  0.045
-  0.045  0.046  0.045  0.047  0.051  0.063  0.089  0.138  0.212  0.304
+    <t>[ 3.33855018  2.27180102  1.65528372]</t>
+  </si>
+  <si>
+    <t>[-0.16791264 -0.19195552 -0.14948597]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.6    0.3  ]</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.019  0.014  0.012  0.01   0.009  0.008  0.008  0.008  0.007
+  0.008  0.008  0.009  0.009  0.009  0.01   0.012  0.02   0.033  0.044
+  0.049  0.052  0.052  0.054  0.059  0.072  0.101  0.153  0.227  0.314
+  0.396]</t>
+  </si>
+  <si>
+    <t>[ 3.21683893  2.21013798  1.06268037]</t>
+  </si>
+  <si>
+    <t>[-0.17355028 -0.19781387 -0.15632768]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.6    0.6  ]</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.016  0.013  0.011  0.009  0.008  0.007  0.007  0.007  0.007
+  0.007  0.008  0.009  0.009  0.009  0.01   0.012  0.02   0.033  0.043
+  0.049  0.052  0.052  0.054  0.059  0.072  0.1    0.153  0.227  0.313
+  0.394]</t>
+  </si>
+  <si>
+    <t>[ 3.19286514  2.19495931  0.95176641]</t>
+  </si>
+  <si>
+    <t>[-0.17458128 -0.19884363 -0.15775887]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.6    0.7  ]</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>[ 0.153  0.116  0.082  0.057  0.039  0.028  0.02   0.016  0.013  0.011
+  0.01   0.009  0.008  0.008  0.008  0.009  0.011  0.018  0.031  0.042
+  0.048  0.051  0.051  0.054  0.059  0.072  0.101  0.154  0.229  0.318
+  0.403]</t>
+  </si>
+  <si>
+    <t>[ 3.67889439  2.2645712   3.76655915]</t>
+  </si>
+  <si>
+    <t>[-0.14678511 -0.16721947 -0.12601598]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.7    0.   ]</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>[ 0.127  0.095  0.068  0.049  0.035  0.026  0.019  0.015  0.013  0.011
+  0.009  0.009  0.008  0.008  0.008  0.009  0.011  0.018  0.031  0.042
+  0.048  0.051  0.051  0.054  0.059  0.072  0.101  0.154  0.229  0.318
+  0.403]</t>
+  </si>
+  <si>
+    <t>[ 3.58945764  2.24644154  3.32428411]</t>
+  </si>
+  <si>
+    <t>[-0.15117289 -0.17253154 -0.13123261]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.7    0.025]</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>[ 0.075  0.055  0.041  0.031  0.024  0.019  0.015  0.013  0.011  0.01
+  0.009  0.009  0.008  0.008  0.008  0.009  0.011  0.018  0.031  0.042
+  0.048  0.051  0.051  0.054  0.059  0.072  0.101  0.154  0.229  0.317
+  0.401]</t>
+  </si>
+  <si>
+    <t>[ 3.38740301  2.1971488   2.31786022]</t>
+  </si>
+  <si>
+    <t>[-0.16116522 -0.18422589 -0.14282384]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.7    0.125]</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>[ 0.044  0.032  0.024  0.019  0.016  0.013  0.011  0.01   0.009  0.008
+  0.008  0.008  0.008  0.008  0.008  0.009  0.011  0.018  0.031  0.042
+  0.048  0.051  0.051  0.054  0.059  0.072  0.101  0.154  0.228  0.315
   0.398]</t>
   </si>
   <si>
-    <t>[ 3.73901319  3.36272687  2.12236157]</t>
-  </si>
-  <si>
-    <t>[-0.16654666 -0.19129722 -0.13374286]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.15  0.35]</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>[ 0.03   0.022  0.017  0.015  0.013  0.012  0.012  0.012  0.012  0.014
-  0.016  0.02   0.024  0.027  0.028  0.029  0.031  0.038  0.043  0.045
-  0.045  0.046  0.045  0.047  0.051  0.063  0.088  0.138  0.211  0.302
-  0.394]</t>
-  </si>
-  <si>
-    <t>[ 3.60290813  3.21401129  1.46766084]</t>
-  </si>
-  <si>
-    <t>[-0.17166099 -0.19810175 -0.14089813]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.15  0.55]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>[ 0.023  0.016  0.013  0.011  0.01   0.009  0.009  0.009  0.01   0.011
-  0.013  0.017  0.022  0.025  0.027  0.028  0.031  0.037  0.043  0.045
-  0.045  0.046  0.045  0.046  0.051  0.063  0.088  0.138  0.21   0.3
-  0.391]</t>
-  </si>
-  <si>
-    <t>[ 3.52438312  3.1093224   1.1250466 ]</t>
-  </si>
-  <si>
-    <t>[-0.17409341 -0.20180977 -0.14530819]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.15  0.75]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>[ 0.018  0.013  0.01   0.009  0.008  0.008  0.007  0.008  0.008  0.009
-  0.011  0.015  0.02   0.024  0.027  0.028  0.031  0.037  0.042  0.045
-  0.045  0.046  0.045  0.046  0.051  0.063  0.088  0.137  0.209  0.298
-  0.388]</t>
-  </si>
-  <si>
-    <t>[ 3.4702879   3.02821925  0.9135776 ]</t>
-  </si>
-  <si>
-    <t>[-0.17546761 -0.20416262 -0.14850762]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.15  0.95]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>[ 0.08   0.059  0.046  0.037  0.031  0.026  0.022  0.02   0.018  0.016
-  0.016  0.016  0.015  0.015  0.015  0.016  0.018  0.026  0.036  0.042
-  0.044  0.045  0.045  0.046  0.051  0.063  0.088  0.138  0.211  0.302
-  0.395]</t>
-  </si>
-  <si>
-    <t>[ 3.49692746  2.6227143   2.98770896]</t>
-  </si>
-  <si>
-    <t>[-0.15657627 -0.17915491 -0.13248492]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.35  0.15]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>[ 0.043  0.031  0.024  0.02   0.017  0.015  0.014  0.013  0.013  0.013
-  0.013  0.014  0.014  0.015  0.015  0.016  0.018  0.026  0.036  0.042
-  0.044  0.045  0.045  0.046  0.051  0.063  0.088  0.138  0.21   0.3
-  0.392]</t>
-  </si>
-  <si>
-    <t>[ 3.26211165  2.50899806  1.7855098 ]</t>
-  </si>
-  <si>
-    <t>[-0.16787272 -0.19145489 -0.14457863]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.35  0.35]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>[ 0.029  0.021  0.016  0.014  0.012  0.011  0.01   0.01   0.01   0.01
-  0.011  0.012  0.014  0.014  0.015  0.016  0.018  0.026  0.036  0.042
-  0.044  0.045  0.045  0.046  0.051  0.062  0.088  0.137  0.209  0.299
-  0.389]</t>
-  </si>
-  <si>
-    <t>[ 3.16156254  2.43983935  1.28597574]</t>
-  </si>
-  <si>
-    <t>[-0.17236392 -0.19637434 -0.14996429]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.35  0.55]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>[ 0.022  0.016  0.012  0.01   0.009  0.009  0.008  0.008  0.008  0.009
-  0.01   0.011  0.013  0.014  0.015  0.015  0.018  0.026  0.036  0.042
-  0.044  0.045  0.045  0.046  0.051  0.062  0.088  0.137  0.208  0.297
-  0.386]</t>
-  </si>
-  <si>
-    <t>[ 3.10271728  2.38954457  1.00876335]</t>
-  </si>
-  <si>
-    <t>[-0.17475358 -0.19904519 -0.15332591]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.35  0.75]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>[ 0.018  0.013  0.01   0.008  0.008  0.007  0.007  0.007  0.007  0.007
-  0.009  0.01   0.012  0.013  0.014  0.015  0.018  0.026  0.036  0.042
-  0.044  0.045  0.045  0.046  0.051  0.062  0.088  0.136  0.207  0.295
-  0.383]</t>
-  </si>
-  <si>
-    <t>[ 3.06247391  2.34971482  0.83155438]</t>
-  </si>
-  <si>
-    <t>[-0.17622385 -0.20071866 -0.15578573]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.35  0.95]</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>[ 0.074  0.054  0.041  0.032  0.026  0.021  0.017  0.015  0.013  0.012
-  0.011  0.011  0.01   0.01   0.01   0.011  0.013  0.02   0.031  0.039
-  0.043  0.045  0.044  0.046  0.051  0.062  0.088  0.137  0.209  0.299
-  0.39 ]</t>
-  </si>
-  <si>
-    <t>[ 3.17927284  2.19624918  2.45136744]</t>
-  </si>
-  <si>
-    <t>[-0.16063989 -0.18276534 -0.1401426 ]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.55  0.15]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>[ 0.041  0.029  0.023  0.018  0.016  0.014  0.012  0.011  0.01   0.01
-  0.009  0.01   0.01   0.01   0.01   0.011  0.013  0.02   0.031  0.039
-  0.043  0.045  0.044  0.046  0.05   0.062  0.088  0.137  0.208  0.297
-  0.387]</t>
-  </si>
-  <si>
-    <t>[ 3.00298056  2.12750068  1.56031905]</t>
-  </si>
-  <si>
-    <t>[-0.16928997 -0.19220283 -0.14974239]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.55  0.35]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>[ 0.028  0.02   0.016  0.013  0.011  0.01   0.009  0.009  0.008  0.008
-  0.008  0.009  0.009  0.01   0.01   0.011  0.013  0.02   0.031  0.039
-  0.043  0.045  0.044  0.046  0.05   0.062  0.088  0.136  0.207  0.295
-  0.384]</t>
-  </si>
-  <si>
-    <t>[ 2.92150166  2.08385994  1.15717335]</t>
-  </si>
-  <si>
-    <t>[-0.17309751 -0.19620481 -0.15429604]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.55  0.55]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>[ 0.022  0.015  0.012  0.01   0.009  0.008  0.007  0.007  0.007  0.007
-  0.008  0.008  0.009  0.01   0.01   0.011  0.013  0.02   0.031  0.039
-  0.042  0.044  0.044  0.046  0.05   0.062  0.087  0.136  0.207  0.294
-  0.381]</t>
-  </si>
-  <si>
-    <t>[ 2.87237607  2.05143006  0.92368966]</t>
-  </si>
-  <si>
-    <t>[-0.17524699 -0.19841162 -0.15720635]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.55  0.75]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>[ 0.068  0.049  0.037  0.028  0.022  0.017  0.014  0.012  0.01   0.009
-  0.008  0.008  0.008  0.008  0.008  0.008  0.01   0.016  0.027  0.037
-  0.041  0.044  0.044  0.046  0.05   0.062  0.087  0.136  0.207  0.296
-  0.385]</t>
-  </si>
-  <si>
-    <t>[ 2.96403169  1.94562646  2.09022506]</t>
-  </si>
-  <si>
-    <t>[-0.16359423 -0.18536981 -0.14527397]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.75  0.15]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>[ 0.039  0.028  0.021  0.017  0.014  0.012  0.01   0.009  0.008  0.008
-  0.007  0.007  0.007  0.008  0.008  0.008  0.01   0.016  0.027  0.037
-  0.041  0.044  0.044  0.046  0.05   0.062  0.087  0.136  0.207  0.294
-  0.382]</t>
-  </si>
-  <si>
-    <t>[ 2.8246312   1.89800547  1.39349512]</t>
-  </si>
-  <si>
-    <t>[-0.17050067 -0.19296265 -0.1532346 ]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.75  0.35]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>[ 0.028  0.02   0.015  0.012  0.011  0.009  0.008  0.008  0.007  0.007
-  0.007  0.007  0.007  0.007  0.008  0.008  0.01   0.016  0.027  0.037
-  0.041  0.044  0.044  0.046  0.05   0.062  0.087  0.135  0.206  0.292
-  0.379]</t>
-  </si>
-  <si>
-    <t>[ 2.75608511  1.8667407   1.05735776]</t>
-  </si>
-  <si>
-    <t>[-0.17376395 -0.19634969 -0.15723064]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.75  0.55]</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>[ 0.064  0.045  0.033  0.025  0.019  0.015  0.012  0.01   0.008  0.007
-  0.007  0.006  0.006  0.006  0.006  0.007  0.008  0.014  0.024  0.035
-  0.04   0.043  0.043  0.045  0.05   0.062  0.087  0.135  0.206  0.293
-  0.379]</t>
-  </si>
-  <si>
-    <t>[ 2.80249608  1.77515539  1.82721361]</t>
-  </si>
-  <si>
-    <t>[-0.16583863 -0.18733719 -0.14918105]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.95  0.15]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>[ 0.038  0.027  0.02   0.016  0.013  0.011  0.009  0.008  0.007  0.006
-  0.006  0.006  0.006  0.006  0.006  0.007  0.008  0.014  0.024  0.034
-  0.04   0.043  0.043  0.045  0.05   0.062  0.087  0.135  0.205  0.291
-  0.376]</t>
-  </si>
-  <si>
-    <t>[ 2.68850132  1.73956372  1.26298615]</t>
-  </si>
-  <si>
-    <t>[-0.17152363 -0.19362844 -0.15596079]</t>
-  </si>
-  <si>
-    <t>[ 0.15  0.95  0.35]</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>[ 0.082  0.062  0.05   0.042  0.037  0.033  0.03   0.028  0.027  0.026
-  0.026  0.027  0.027  0.025  0.023  0.021  0.02   0.021  0.021  0.021
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.07   0.116  0.184
-  0.265]</t>
-  </si>
-  <si>
-    <t>[ 2.42718067  2.39590489  3.75222118]</t>
-  </si>
-  <si>
-    <t>[-0.15574776 -0.16256982 -0.14284546]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.15  0.15]</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>[ 0.043  0.032  0.025  0.022  0.019  0.018  0.017  0.017  0.017  0.018
-  0.02   0.022  0.024  0.024  0.023  0.021  0.02   0.021  0.021  0.021
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.07   0.116  0.183
-  0.264]</t>
-  </si>
-  <si>
-    <t>[ 2.10935112  2.17279209  2.07079176]</t>
-  </si>
-  <si>
-    <t>[-0.17033635 -0.17922062 -0.15796018]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.15  0.35]</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>[ 0.029  0.021  0.017  0.014  0.013  0.012  0.012  0.012  0.012  0.013
-  0.016  0.019  0.022  0.023  0.022  0.021  0.02   0.021  0.021  0.021
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.07   0.115  0.182
-  0.262]</t>
-  </si>
-  <si>
-    <t>[ 1.98660483  2.04802147  1.44073274]</t>
-  </si>
-  <si>
-    <t>[-0.17533671 -0.18575983 -0.16416605]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.15  0.55]</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>[ 0.022  0.016  0.013  0.011  0.01   0.009  0.009  0.009  0.01   0.011
-  0.013  0.016  0.02   0.022  0.022  0.021  0.02   0.021  0.021  0.021
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.115  0.182
-  0.261]</t>
-  </si>
-  <si>
-    <t>[ 1.91839294  1.96191468  1.10791321]</t>
-  </si>
-  <si>
-    <t>[-0.17775133 -0.18941035 -0.1678283 ]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.15  0.75]</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>[ 0.018  0.013  0.01   0.009  0.008  0.007  0.007  0.008  0.008  0.009
-  0.011  0.014  0.018  0.021  0.021  0.02   0.02   0.021  0.021  0.021
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.115  0.181
-  0.26 ]</t>
-  </si>
-  <si>
-    <t>[ 1.8734078   1.89641222  0.90142452]</t>
-  </si>
-  <si>
-    <t>[-0.17912228 -0.19179208 -0.17037078]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.15  0.95]</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>[ 0.075  0.056  0.044  0.036  0.03   0.025  0.021  0.019  0.017  0.016
-  0.015  0.015  0.014  0.014  0.013  0.013  0.014  0.017  0.019  0.02
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.07   0.115  0.183
-  0.263]</t>
-  </si>
-  <si>
-    <t>[ 2.07869579  1.73180265  2.89609798]</t>
-  </si>
-  <si>
-    <t>[-0.16029867 -0.17002936 -0.15541606]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.35  0.15]</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>[ 0.041  0.03   0.024  0.02   0.017  0.015  0.014  0.013  0.012  0.012
-  0.012  0.013  0.013  0.013  0.013  0.013  0.014  0.017  0.019  0.02
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.115  0.182
-  0.261]</t>
-  </si>
-  <si>
-    <t>[ 1.8593235   1.62840837  1.75152765]</t>
-  </si>
-  <si>
-    <t>[-0.17095881 -0.18172326 -0.16632009]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.35  0.35]</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>[ 0.029  0.021  0.016  0.014  0.012  0.011  0.01   0.01   0.01   0.01
-  0.011  0.012  0.013  0.013  0.013  0.013  0.014  0.017  0.019  0.02
-  0.021  0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.115  0.181
-  0.26 ]</t>
-  </si>
-  <si>
-    <t>[ 1.76610641  1.56636472  1.267513  ]</t>
-  </si>
-  <si>
-    <t>[-0.17528314 -0.18658046 -0.17104019]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.35  0.55]</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>[ 0.022  0.016  0.012  0.01   0.009  0.009  0.008  0.008  0.008  0.008
-  0.009  0.011  0.012  0.013  0.013  0.013  0.014  0.017  0.019  0.02
-  0.02   0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.115  0.181
-  0.259]</t>
-  </si>
-  <si>
-    <t>[ 1.71288107  1.52197324  0.99686713]</t>
-  </si>
-  <si>
-    <t>[-0.17759768 -0.18929748 -0.1738498 ]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.35  0.75]</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>[ 0.07   0.052  0.039  0.031  0.025  0.02   0.017  0.014  0.013  0.011
-  0.01   0.01   0.01   0.01   0.009  0.009  0.011  0.014  0.018  0.02
-  0.02   0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.115  0.181
-  0.261]</t>
-  </si>
-  <si>
-    <t>[ 1.88145582  1.43392903  2.38868616]</t>
-  </si>
-  <si>
-    <t>[-0.16394474 -0.173971   -0.16188068]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.55  0.15]</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>[ 0.04   0.029  0.022  0.018  0.015  0.013  0.012  0.011  0.01   0.009
-  0.009  0.009  0.009  0.009  0.009  0.009  0.011  0.014  0.018  0.02
-  0.02   0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.115  0.181
-  0.259]</t>
-  </si>
-  <si>
-    <t>[ 1.71585649  1.37046417  1.53477702]</t>
-  </si>
-  <si>
-    <t>[-0.17213383 -0.18302018 -0.17051875]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.55  0.35]</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>[ 0.028  0.02   0.016  0.013  0.011  0.01   0.009  0.008  0.008  0.008
-  0.008  0.009  0.009  0.009  0.009  0.009  0.011  0.014  0.018  0.02
-  0.02   0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.114  0.18
-  0.258]</t>
-  </si>
-  <si>
-    <t>[ 1.63994434  1.33070313  1.14276317]</t>
-  </si>
-  <si>
-    <t>[-0.1757959  -0.18700965 -0.17448495]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.55  0.55]</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>[ 0.065  0.047  0.036  0.027  0.022  0.017  0.014  0.012  0.01   0.009
-  0.008  0.008  0.007  0.007  0.007  0.007  0.009  0.012  0.017  0.019
-  0.02   0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.114  0.18
-  0.258]</t>
-  </si>
-  <si>
-    <t>[ 1.74730182  1.25788467  2.04376257]</t>
-  </si>
-  <si>
-    <t>[-0.16666712 -0.17665384 -0.16615662]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.75  0.15]</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>[ 0.038  0.027  0.021  0.017  0.014  0.012  0.01   0.009  0.008  0.008
-  0.007  0.007  0.007  0.007  0.007  0.007  0.009  0.012  0.017  0.019
-  0.02   0.021  0.02   0.021  0.023  0.029  0.042  0.069  0.114  0.18
-  0.257]</t>
-  </si>
-  <si>
-    <t>[ 1.61606893  1.21374763  1.37313892]</t>
-  </si>
-  <si>
-    <t>[-0.17322137 -0.18398112 -0.17329174]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.75  0.35]</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>[ 0.061  0.044  0.032  0.025  0.019  0.015  0.012  0.01   0.008  0.007
-  0.007  0.006  0.006  0.006  0.006  0.006  0.007  0.011  0.015  0.018
-  0.02   0.02   0.02   0.021  0.023  0.029  0.042  0.069  0.114  0.179
-  0.256]</t>
-  </si>
-  <si>
-    <t>[ 1.64738269  1.13890505  1.79104607]</t>
-  </si>
-  <si>
-    <t>[-0.16875886 -0.17865352 -0.16932957]</t>
-  </si>
-  <si>
-    <t>[ 0.35  0.95  0.15]</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>[ 0.077  0.06   0.048  0.041  0.036  0.032  0.029  0.027  0.025  0.025
-  0.025  0.025  0.024  0.022  0.019  0.017  0.015  0.015  0.014  0.014
-  0.014  0.014  0.013  0.014  0.015  0.019  0.028  0.047  0.08   0.133
-  0.201]</t>
-  </si>
-  <si>
-    <t>[ 1.85709426  1.90358756  3.60732851]</t>
-  </si>
-  <si>
-    <t>[-0.1583194  -0.15797211 -0.1589457 ]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.15  0.15]</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>[ 0.042  0.031  0.025  0.021  0.019  0.017  0.016  0.016  0.016  0.017
-  0.019  0.021  0.022  0.021  0.019  0.017  0.015  0.015  0.014  0.014
-  0.014  0.014  0.013  0.014  0.015  0.019  0.028  0.047  0.08   0.132
-  0.2  ]</t>
-  </si>
-  <si>
-    <t>[ 1.560055    1.70620296  2.02264777]</t>
-  </si>
-  <si>
-    <t>[-0.17212517 -0.1734648  -0.1728046 ]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.15  0.35]</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>[ 0.029  0.021  0.017  0.014  0.013  0.012  0.011  0.012  0.012  0.013
-  0.015  0.018  0.02   0.02   0.018  0.017  0.015  0.015  0.014  0.014
-  0.014  0.014  0.013  0.014  0.015  0.019  0.028  0.047  0.08   0.132
-  0.199]</t>
-  </si>
-  <si>
-    <t>[ 1.4444534   1.59625032  1.41559948]</t>
-  </si>
-  <si>
-    <t>[-0.17702163 -0.17966783 -0.17849938]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.15  0.55]</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>[ 0.022  0.016  0.013  0.011  0.01   0.009  0.009  0.009  0.009  0.01
-  0.012  0.016  0.018  0.019  0.018  0.016  0.015  0.015  0.014  0.014
-  0.014  0.014  0.013  0.014  0.015  0.019  0.028  0.047  0.08   0.132
-  0.198]</t>
-  </si>
-  <si>
-    <t>[ 1.3807503   1.52090916  1.09200142]</t>
-  </si>
-  <si>
-    <t>[-0.17943174 -0.18316017 -0.18181308]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.15  0.75]</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>[ 0.071  0.054  0.043  0.035  0.029  0.024  0.021  0.019  0.017  0.015
-  0.014  0.014  0.013  0.013  0.012  0.011  0.011  0.013  0.013  0.013
-  0.013  0.014  0.013  0.014  0.015  0.019  0.028  0.047  0.08   0.132
-  0.199]</t>
-  </si>
-  <si>
-    <t>[ 1.59285859  1.39056593  2.81020349]</t>
-  </si>
-  <si>
-    <t>[-0.162463   -0.1657271  -0.16949981]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.35  0.15]</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>[ 0.04   0.03   0.023  0.019  0.017  0.015  0.014  0.013  0.012  0.012
-  0.012  0.013  0.013  0.012  0.012  0.011  0.011  0.013  0.013  0.013
-  0.013  0.014  0.013  0.014  0.015  0.019  0.028  0.047  0.08   0.132
-  0.199]</t>
-  </si>
-  <si>
-    <t>[ 1.38483249  1.2944625   1.71898919]</t>
-  </si>
-  <si>
-    <t>[-0.17256636 -0.17678747 -0.17963043]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.35  0.35]</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>[ 0.028  0.02   0.016  0.013  0.012  0.011  0.01   0.01   0.01   0.01
-  0.01   0.012  0.012  0.012  0.012  0.011  0.011  0.013  0.013  0.013
-  0.013  0.014  0.013  0.014  0.015  0.019  0.028  0.047  0.079  0.131
-  0.198]</t>
-  </si>
-  <si>
-    <t>[ 1.29555919  1.23686248  1.24973508]</t>
-  </si>
-  <si>
-    <t>[-0.17675288 -0.18149358 -0.18402953]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.35  0.55]</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>[ 0.066  0.05   0.038  0.03   0.024  0.02   0.016  0.014  0.012  0.011
-  0.01   0.01   0.009  0.009  0.009  0.008  0.009  0.011  0.012  0.013
-  0.013  0.013  0.013  0.014  0.015  0.019  0.028  0.046  0.079  0.131
-  0.198]</t>
-  </si>
-  <si>
-    <t>[ 1.43681632  1.14872061  2.32932425]</t>
-  </si>
-  <si>
-    <t>[-0.16580977 -0.16981321 -0.17522138]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.55  0.15]</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>[ 0.038  0.028  0.022  0.018  0.015  0.013  0.011  0.011  0.01   0.009
-  0.009  0.009  0.009  0.009  0.009  0.008  0.009  0.011  0.012  0.013
-  0.013  0.013  0.013  0.014  0.015  0.019  0.028  0.046  0.079  0.131
-  0.197]</t>
-  </si>
-  <si>
-    <t>[ 1.27877682  1.08872387  1.51012254]</t>
-  </si>
-  <si>
-    <t>[-0.17359905 -0.17842652 -0.18327044]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.55  0.35]</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>[ 0.062  0.046  0.035  0.027  0.021  0.017  0.013  0.011  0.01   0.009
-  0.008  0.008  0.007  0.007  0.007  0.007  0.008  0.01   0.012  0.013
-  0.013  0.013  0.013  0.014  0.015  0.019  0.028  0.046  0.079  0.131
-  0.197]</t>
-  </si>
-  <si>
-    <t>[ 1.32930818  1.00333739  1.99949049]</t>
-  </si>
-  <si>
-    <t>[-0.16834528 -0.17254246 -0.17904818]</t>
-  </si>
-  <si>
-    <t>[ 0.55  0.75  0.15]</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>[ 0.072  0.057  0.047  0.04   0.035  0.031  0.028  0.026  0.024  0.023
-  0.023  0.023  0.022  0.019  0.016  0.014  0.012  0.011  0.01   0.01
-  0.01   0.01   0.01   0.01   0.011  0.014  0.021  0.035  0.061  0.104
-  0.162]</t>
-  </si>
-  <si>
-    <t>[ 1.55381903  1.61563174  3.4739528 ]</t>
-  </si>
-  <si>
-    <t>[-0.16010469 -0.15584581 -0.16966596]</t>
-  </si>
-  <si>
-    <t>[ 0.75  0.15  0.15]</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>[ 0.04   0.03   0.024  0.021  0.019  0.017  0.016  0.016  0.016  0.016
-  0.018  0.019  0.02   0.018  0.016  0.014  0.012  0.011  0.01   0.01
-  0.01   0.01   0.01   0.01   0.011  0.014  0.021  0.035  0.061  0.104
-  0.162]</t>
-  </si>
-  <si>
-    <t>[ 1.27446926  1.4381497   1.97733587]</t>
-  </si>
-  <si>
-    <t>[-0.17318506 -0.17031072 -0.18250934]</t>
-  </si>
-  <si>
-    <t>[ 0.75  0.15  0.35]</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>[ 0.028  0.021  0.017  0.014  0.013  0.012  0.011  0.011  0.012  0.013
-  0.014  0.017  0.018  0.018  0.016  0.014  0.012  0.011  0.01   0.01
-  0.01   0.01   0.01   0.01   0.011  0.014  0.021  0.035  0.061  0.103
-  0.161]</t>
-  </si>
-  <si>
-    <t>[ 1.16431774  1.33916238  1.39186797]</t>
-  </si>
-  <si>
-    <t>[-0.17797048 -0.17619968 -0.18783142]</t>
-  </si>
-  <si>
-    <t>[ 0.75  0.15  0.55]</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>[ 0.067  0.052  0.041  0.034  0.028  0.024  0.02   0.018  0.016  0.015
-  0.014  0.014  0.013  0.012  0.011  0.01   0.009  0.01   0.01   0.01
-  0.01   0.01   0.01   0.01   0.011  0.014  0.021  0.035  0.061  0.104
-  0.161]</t>
-  </si>
-  <si>
-    <t>[ 1.33572145  1.19520806  2.72946292]</t>
-  </si>
-  <si>
-    <t>[-0.16401411 -0.1633892  -0.17879383]</t>
-  </si>
-  <si>
-    <t>[ 0.75  0.35  0.15]</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>[ 0.039  0.029  0.023  0.019  0.017  0.015  0.013  0.013  0.012  0.012
-  0.012  0.012  0.012  0.011  0.011  0.01   0.009  0.01   0.01   0.01
-  0.01   0.01   0.01   0.01   0.011  0.014  0.021  0.035  0.061  0.103
-  0.161]</t>
-  </si>
-  <si>
-    <t>[ 1.13768943  1.10522274  1.68777213]</t>
-  </si>
-  <si>
-    <t>[-0.17361383 -0.1738584  -0.18829504]</t>
-  </si>
-  <si>
-    <t>[ 0.75  0.35  0.35]</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>[ 0.062  0.048  0.037  0.03   0.024  0.019  0.016  0.014  0.012  0.011
-  0.01   0.01   0.009  0.009  0.008  0.008  0.008  0.009  0.01   0.01
-  0.01   0.01   0.01   0.01   0.011  0.014  0.021  0.035  0.061  0.103
-  0.161]</t>
-  </si>
-  <si>
-    <t>[ 1.20260583  0.9885102   2.27300132]</t>
-  </si>
-  <si>
-    <t>[-0.16713546 -0.16747179 -0.18395663]</t>
-  </si>
-  <si>
-    <t>[ 0.75  0.55  0.15]</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>[ 0.068  0.055  0.045  0.038  0.034  0.03   0.027  0.025  0.023  0.022
-  0.022  0.022  0.02   0.017  0.014  0.012  0.01   0.009  0.008  0.008
-  0.008  0.008  0.008  0.008  0.009  0.011  0.016  0.028  0.05   0.085
-  0.136]</t>
-  </si>
-  <si>
-    <t>[ 1.35989406  1.41949903  3.3506107 ]</t>
-  </si>
-  <si>
-    <t>[-0.16149797 -0.1548796  -0.17741094]</t>
-  </si>
-  <si>
-    <t>[ 0.95  0.15  0.15]</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>[ 0.039  0.03   0.024  0.021  0.018  0.017  0.016  0.016  0.015  0.016
-  0.017  0.018  0.018  0.016  0.014  0.012  0.01   0.009  0.008  0.008
-  0.008  0.008  0.008  0.008  0.009  0.011  0.016  0.028  0.049  0.085
-  0.136]</t>
-  </si>
-  <si>
-    <t>[ 1.09620416  1.25819609  1.9344688 ]</t>
-  </si>
-  <si>
-    <t>[-0.17390536 -0.16843406 -0.18939017]</t>
-  </si>
-  <si>
-    <t>[ 0.95  0.15  0.35]</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>[ 0.063  0.05   0.04   0.033  0.028  0.023  0.02   0.018  0.016  0.014
-  0.013  0.013  0.012  0.011  0.01   0.009  0.008  0.008  0.008  0.008
-  0.008  0.008  0.008  0.008  0.009  0.011  0.016  0.028  0.049  0.085
-  0.136]</t>
-  </si>
-  <si>
-    <t>[ 1.17201248  1.06329477  2.65339544]</t>
-  </si>
-  <si>
-    <t>[-0.16523628 -0.16204212 -0.18546291]</t>
-  </si>
-  <si>
-    <t>[ 0.95  0.35  0.15]</t>
+    <t>[ 3.23500927  2.14641667  1.5580074 ]</t>
+  </si>
+  <si>
+    <t>[-0.16864095 -0.19246987 -0.15136355]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.7    0.3  ]</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.018  0.014  0.012  0.01   0.009  0.008  0.007  0.007  0.007
+  0.007  0.007  0.008  0.008  0.008  0.009  0.011  0.018  0.031  0.042
+  0.048  0.051  0.051  0.053  0.059  0.072  0.1    0.153  0.226  0.312
+  0.393]</t>
+  </si>
+  <si>
+    <t>[ 3.1235255   2.0941812   1.01793391]</t>
+  </si>
+  <si>
+    <t>[-0.17384834 -0.19784786 -0.1577672 ]</t>
+  </si>
+  <si>
+    <t>[ 0.125  0.7    0.6  ]</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>[ 0.297  0.317  0.326  0.322  0.306  0.284  0.261  0.239  0.217  0.195
+  0.173  0.147  0.115  0.085  0.063  0.047  0.036  0.03   0.026  0.025
+  0.024  0.024  0.024  0.025  0.027  0.034  0.049  0.08   0.13   0.203
+  0.286]</t>
+  </si>
+  <si>
+    <t>[  7.7983966    7.92547424  29.33792391]</t>
+  </si>
+  <si>
+    <t>[ 0.04243135  0.07066587  0.07466395]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.   0. ]</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>[ 0.208  0.192  0.177  0.164  0.153  0.145  0.139  0.136  0.134  0.134
+  0.134  0.127  0.108  0.083  0.062  0.047  0.036  0.03   0.026  0.025
+  0.024  0.024  0.024  0.025  0.027  0.034  0.048  0.08   0.13   0.202
+  0.286]</t>
+  </si>
+  <si>
+    <t>[  5.36718716   6.53379721  15.9181649 ]</t>
+  </si>
+  <si>
+    <t>[-0.07459805 -0.04238714 -0.01967813]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.     0.025]</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>[ 0.097  0.077  0.064  0.057  0.053  0.05   0.049  0.051  0.054  0.06
+  0.071  0.084  0.087  0.076  0.06   0.046  0.036  0.03   0.026  0.025
+  0.024  0.024  0.024  0.025  0.027  0.034  0.048  0.079  0.13   0.202
+  0.285]</t>
+  </si>
+  <si>
+    <t>[ 3.55415747  4.87453544  5.89325009]</t>
+  </si>
+  <si>
+    <t>[-0.15399126 -0.1326725  -0.09722358]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.     0.125]</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>[ 0.05   0.038  0.031  0.027  0.025  0.023  0.023  0.024  0.026  0.031
+  0.039  0.052  0.065  0.066  0.057  0.045  0.036  0.03   0.026  0.025
+  0.024  0.024  0.024  0.024  0.027  0.034  0.048  0.079  0.13   0.201
+  0.284]</t>
+  </si>
+  <si>
+    <t>[ 2.9642479   3.98499263  2.85026466]</t>
+  </si>
+  <si>
+    <t>[-0.17311737 -0.16721566 -0.1278161 ]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.   0.3]</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.02   0.016  0.014  0.013  0.012  0.012  0.013  0.014  0.017
+  0.022  0.032  0.045  0.054  0.052  0.044  0.035  0.03   0.026  0.025
+  0.024  0.024  0.024  0.024  0.027  0.034  0.048  0.079  0.129  0.2
+  0.282]</t>
+  </si>
+  <si>
+    <t>[ 2.66003562  3.36619583  1.52428479]</t>
+  </si>
+  <si>
+    <t>[-0.17848196 -0.18668197 -0.14552235]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.   0.6]</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.018  0.014  0.012  0.011  0.011  0.01   0.011  0.012  0.014
+  0.019  0.028  0.041  0.051  0.051  0.043  0.035  0.03   0.026  0.025
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.2
+  0.281]</t>
+  </si>
+  <si>
+    <t>[ 2.60494132  3.23994044  1.32105782]</t>
+  </si>
+  <si>
+    <t>[-0.17896444 -0.19014771 -0.14879715]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.   0.7]</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>[ 0.285  0.295  0.29   0.271  0.241  0.21   0.18   0.157  0.136  0.12
+  0.106  0.093  0.078  0.063  0.05   0.04   0.033  0.029  0.026  0.025
+  0.024  0.024  0.024  0.025  0.027  0.034  0.048  0.079  0.13   0.202
+  0.286]</t>
+  </si>
+  <si>
+    <t>[  6.40304278   5.86842643  22.12333665]</t>
+  </si>
+  <si>
+    <t>[-0.0067724   0.00642681  0.01884753]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.025  0.   ]</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>[ 0.202  0.185  0.166  0.15   0.136  0.124  0.113  0.106  0.099  0.094
+  0.09   0.085  0.075  0.062  0.05   0.04   0.033  0.029  0.026  0.025
+  0.024  0.024  0.024  0.025  0.027  0.034  0.048  0.079  0.13   0.202
+  0.286]</t>
+  </si>
+  <si>
+    <t>[  4.79299094   5.15676077  13.46849284]</t>
+  </si>
+  <si>
+    <t>[-0.08349365 -0.07044106 -0.04714786]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.025  0.025]</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>[ 0.095  0.076  0.063  0.055  0.05   0.047  0.046  0.046  0.047  0.05
+  0.056  0.063  0.064  0.058  0.049  0.04   0.033  0.029  0.026  0.025
+  0.024  0.024  0.024  0.024  0.027  0.034  0.048  0.079  0.13   0.202
+  0.285]</t>
+  </si>
+  <si>
+    <t>[ 3.32461753  4.12738702  5.47555663]</t>
+  </si>
+  <si>
+    <t>[-0.1507083  -0.14299009 -0.10976441]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.025  0.125]</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>[ 0.05   0.038  0.03   0.026  0.024  0.023  0.022  0.023  0.025  0.028
+  0.034  0.044  0.051  0.052  0.047  0.039  0.033  0.029  0.026  0.025
+  0.024  0.024  0.024  0.024  0.027  0.034  0.048  0.079  0.13   0.201
+  0.284]</t>
+  </si>
+  <si>
+    <t>[ 2.80329561  3.50089767  2.73509322]</t>
+  </si>
+  <si>
+    <t>[-0.17052729 -0.17161463 -0.13521653]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.025  0.3  ]</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>[ 0.028  0.02   0.016  0.014  0.013  0.012  0.012  0.013  0.014  0.016
+  0.02   0.028  0.038  0.044  0.043  0.038  0.032  0.028  0.026  0.025
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.2
+  0.281]</t>
+  </si>
+  <si>
+    <t>[ 2.53408644  3.03510832  1.48561826]</t>
+  </si>
+  <si>
+    <t>[-0.17733853 -0.18769411 -0.15011647]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.025  0.6  ]</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.017  0.014  0.012  0.011  0.01   0.01   0.011  0.012  0.014
+  0.018  0.025  0.035  0.042  0.042  0.037  0.032  0.028  0.026  0.025
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.2
+  0.28 ]</t>
+  </si>
+  <si>
+    <t>[ 2.48585866  2.93698182  1.29083122]</t>
+  </si>
+  <si>
+    <t>[-0.17811652 -0.19058047 -0.15292066]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.025  0.7  ]</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[ 0.245  0.233  0.205  0.169  0.134  0.104  0.082  0.067  0.056  0.048
+  0.042  0.038  0.034  0.031  0.028  0.025  0.024  0.025  0.025  0.025
+  0.024  0.024  0.024  0.024  0.027  0.034  0.048  0.079  0.13   0.202
+  0.285]</t>
+  </si>
+  <si>
+    <t>[  4.27087305   3.3415681   11.98958823]</t>
+  </si>
+  <si>
+    <t>[-0.08251622 -0.08474546 -0.06613224]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.125  0.   ]</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>[ 0.182  0.159  0.135  0.113  0.094  0.078  0.065  0.056  0.048  0.043
+  0.039  0.037  0.034  0.031  0.028  0.025  0.024  0.025  0.025  0.024
+  0.024  0.024  0.024  0.024  0.027  0.034  0.048  0.079  0.13   0.202
+  0.284]</t>
+  </si>
+  <si>
+    <t>[ 3.64801699  3.15627426  8.76531477]</t>
+  </si>
+  <si>
+    <t>[-0.11131035 -0.11624911 -0.09473239]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.125  0.025]</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>[ 0.091  0.071  0.058  0.049  0.043  0.039  0.035  0.033  0.031  0.031
+  0.031  0.032  0.031  0.03   0.028  0.025  0.024  0.025  0.024  0.024
+  0.024  0.024  0.024  0.024  0.027  0.034  0.048  0.079  0.13   0.201
+  0.284]</t>
+  </si>
+  <si>
+    <t>[ 2.81775421  2.79969099  4.38940687]</t>
+  </si>
+  <si>
+    <t>[-0.15068692 -0.15841487 -0.13235375]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.125  0.125]</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>[ 0.049  0.036  0.029  0.025  0.022  0.021  0.019  0.019  0.02   0.021
+  0.023  0.026  0.028  0.028  0.027  0.025  0.024  0.025  0.024  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.2
+  0.282]</t>
+  </si>
+  <si>
+    <t>[ 2.44204513  2.53157839  2.39866628]</t>
+  </si>
+  <si>
+    <t>[-0.1677785  -0.17789265 -0.14991541]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.125  0.3  ]</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>[ 0.027  0.02   0.016  0.013  0.012  0.011  0.011  0.011  0.012  0.013
+  0.016  0.02   0.024  0.026  0.026  0.024  0.024  0.024  0.024  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.199
+  0.28 ]</t>
+  </si>
+  <si>
+    <t>[ 2.23819644  2.3071467   1.36642166]</t>
+  </si>
+  <si>
+    <t>[-0.17569532 -0.18874583 -0.16026103]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.125  0.6  ]</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>[ 0.024  0.017  0.014  0.012  0.011  0.01   0.01   0.01   0.01   0.012
+  0.014  0.018  0.022  0.025  0.025  0.024  0.024  0.024  0.024  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.199
+  0.279]</t>
+  </si>
+  <si>
+    <t>[ 2.20223334  2.25702712  1.19687363]</t>
+  </si>
+  <si>
+    <t>[-0.17685075 -0.19066816 -0.16222021]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.125  0.7  ]</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>[ 0.198  0.171  0.137  0.103  0.076  0.056  0.042  0.034  0.027  0.023
+  0.02   0.019  0.017  0.016  0.016  0.015  0.016  0.02   0.022  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.2
+  0.282]</t>
+  </si>
+  <si>
+    <t>[ 3.10199642  2.20673971  6.94281295]</t>
+  </si>
+  <si>
+    <t>[-0.12307239 -0.13000389 -0.11252825]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.3  0. ]</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>[ 0.155  0.128  0.102  0.079  0.061  0.047  0.037  0.031  0.025  0.022
+  0.02   0.019  0.017  0.016  0.016  0.015  0.016  0.02   0.022  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.2
+  0.282]</t>
+  </si>
+  <si>
+    <t>[ 2.84903953  2.14628579  5.66072201]</t>
+  </si>
+  <si>
+    <t>[-0.13474434 -0.14351821 -0.12519102]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.3    0.025]</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>[ 0.084  0.064  0.051  0.042  0.035  0.029  0.025  0.022  0.02   0.018
+  0.017  0.017  0.017  0.016  0.016  0.015  0.016  0.02   0.022  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.2
+  0.281]</t>
+  </si>
+  <si>
+    <t>[ 2.40311606  2.00667023  3.36518573]</t>
+  </si>
+  <si>
+    <t>[-0.15608116 -0.16733007 -0.14722033]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.3    0.125]</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>[ 0.047  0.035  0.027  0.023  0.02   0.018  0.016  0.015  0.014  0.014
+  0.014  0.015  0.016  0.016  0.015  0.015  0.016  0.02   0.022  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.129  0.199
+  0.28 ]</t>
+  </si>
+  <si>
+    <t>[ 2.14616304  1.88472446  2.02294331]</t>
+  </si>
+  <si>
+    <t>[-0.16846548 -0.18086384 -0.15974901]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.3  0.3]</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.019  0.015  0.013  0.011  0.01   0.01   0.01   0.01   0.01
+  0.011  0.013  0.014  0.015  0.015  0.015  0.016  0.02   0.022  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.128  0.198
+  0.278]</t>
+  </si>
+  <si>
+    <t>[ 1.99102161  1.77349805  1.22111887]</t>
+  </si>
+  <si>
+    <t>[-0.17549915 -0.1888686  -0.16755815]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.3  0.6]</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.017  0.013  0.011  0.01   0.009  0.009  0.009  0.009  0.009
+  0.01   0.012  0.014  0.015  0.015  0.015  0.016  0.02   0.022  0.024
+  0.024  0.024  0.024  0.024  0.027  0.033  0.048  0.079  0.128  0.198
+  0.277]</t>
+  </si>
+  <si>
+    <t>[ 1.96300283  1.74764701  1.08077166]</t>
+  </si>
+  <si>
+    <t>[-0.17666433 -0.19028248 -0.16904616]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.3  0.7]</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>[ 0.149  0.119  0.087  0.062  0.044  0.031  0.023  0.018  0.015  0.012
+  0.011  0.01   0.009  0.009  0.009  0.009  0.011  0.015  0.02   0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.079  0.128  0.198
+  0.278]</t>
+  </si>
+  <si>
+    <t>[ 2.38043053  1.57906392  4.10735081]</t>
+  </si>
+  <si>
+    <t>[-0.14695385 -0.15580194 -0.14067116]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.6  0. ]</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>[ 0.124  0.096  0.072  0.053  0.038  0.028  0.021  0.017  0.014  0.012
+  0.011  0.01   0.009  0.009  0.009  0.009  0.011  0.015  0.02   0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.079  0.128  0.198
+  0.278]</t>
+  </si>
+  <si>
+    <t>[ 2.27843198  1.55771455  3.5976532 ]</t>
+  </si>
+  <si>
+    <t>[-0.15180056 -0.16161114 -0.14624122]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.6    0.025]</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>[ 0.074  0.055  0.042  0.033  0.026  0.021  0.017  0.014  0.012  0.011
+  0.01   0.01   0.009  0.009  0.009  0.009  0.011  0.015  0.02   0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.079  0.128  0.198
+  0.277]</t>
+  </si>
+  <si>
+    <t>[ 2.05399369  1.50087062  2.46296091]</t>
+  </si>
+  <si>
+    <t>[-0.16273026 -0.17431346 -0.15837707]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.6    0.125]</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>[ 0.043  0.032  0.024  0.02   0.017  0.014  0.012  0.011  0.01   0.009
+  0.009  0.009  0.009  0.009  0.009  0.009  0.01   0.015  0.019  0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.078  0.128  0.197
+  0.276]</t>
+  </si>
+  <si>
+    <t>[ 1.89155296  1.44426572  1.63020047]</t>
+  </si>
+  <si>
+    <t>[-0.1707454  -0.18322064 -0.16693692]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.6  0.3]</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>[ 0.025  0.018  0.014  0.012  0.01   0.009  0.008  0.008  0.007  0.007
+  0.008  0.008  0.008  0.009  0.009  0.009  0.01   0.015  0.019  0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.078  0.127  0.196
+  0.274]</t>
+  </si>
+  <si>
+    <t>[ 1.77886092  1.38830079  1.05200844]</t>
+  </si>
+  <si>
+    <t>[-0.1761818  -0.18910343 -0.17289451]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.6  0.6]</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>[ 0.138  0.108  0.078  0.055  0.038  0.027  0.02   0.016  0.013  0.011
+  0.009  0.009  0.008  0.008  0.008  0.008  0.009  0.014  0.019  0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.079  0.128  0.198
+  0.277]</t>
+  </si>
+  <si>
+    <t>[ 2.2474      1.46881658  3.62147684]</t>
+  </si>
+  <si>
+    <t>[-0.15116761 -0.16031397 -0.14578488]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.7  0. ]</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>[ 0.116  0.089  0.066  0.047  0.034  0.025  0.019  0.015  0.012  0.01
+  0.009  0.009  0.008  0.008  0.008  0.008  0.009  0.014  0.019  0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.079  0.128  0.198
+  0.277]</t>
+  </si>
+  <si>
+    <t>[ 2.16582529  1.45213797  3.21499178]</t>
+  </si>
+  <si>
+    <t>[-0.15508672 -0.16504022 -0.1503417 ]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.7    0.025]</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>[ 0.071  0.053  0.04   0.031  0.024  0.019  0.015  0.013  0.011  0.01
+  0.009  0.008  0.008  0.008  0.008  0.008  0.009  0.014  0.019  0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.078  0.128  0.197
+  0.276]</t>
+  </si>
+  <si>
+    <t>[ 1.97775223  1.40636224  2.26777054]</t>
+  </si>
+  <si>
+    <t>[-0.16430602 -0.17584224 -0.16074088]</t>
+  </si>
+  <si>
+    <t>[ 0.3    0.7    0.125]</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>[ 0.042  0.031  0.024  0.019  0.016  0.013  0.011  0.01   0.009  0.008
+  0.008  0.008  0.008  0.008  0.008  0.008  0.009  0.014  0.019  0.022
+  0.023  0.024  0.023  0.024  0.027  0.033  0.048  0.078  0.127  0.197
+  0.275]</t>
+  </si>
+  <si>
+    <t>[ 1.83430063  1.35937314  1.53575334]</t>
+  </si>
+  <si>
+    <t>[-0.17141585 -0.18379738 -0.16846517]</t>
+  </si>
+  <si>
+    <t>[ 0.3  0.7  0.3]</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>[ 0.215  0.229  0.234  0.227  0.211  0.191  0.17   0.152  0.135  0.119
+  0.103  0.085  0.064  0.046  0.034  0.025  0.019  0.015  0.013  0.013
+  0.013  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.124
+  0.188]</t>
+  </si>
+  <si>
+    <t>[  4.8899715    4.5934542   19.73386824]</t>
+  </si>
+  <si>
+    <t>[-0.0296081  -0.00969027 -0.0323666 ]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.   0. ]</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>[ 0.165  0.158  0.147  0.136  0.126  0.117  0.109  0.104  0.098  0.093
+  0.088  0.078  0.062  0.046  0.033  0.025  0.019  0.015  0.013  0.013
+  0.013  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.124
+  0.188]</t>
+  </si>
+  <si>
+    <t>[  3.58533191   3.96241748  12.61117575]</t>
+  </si>
+  <si>
+    <t>[-0.09284094 -0.07063064 -0.08360281]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.     0.025]</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>[ 0.086  0.071  0.06   0.053  0.049  0.046  0.045  0.046  0.047  0.05
+  0.056  0.059  0.055  0.044  0.033  0.025  0.019  0.015  0.013  0.013
+  0.013  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.188]</t>
+  </si>
+  <si>
+    <t>[ 2.26844069  3.02991228  5.3285264 ]</t>
+  </si>
+  <si>
+    <t>[-0.15394574 -0.13401094 -0.13767707]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.     0.125]</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>[ 0.047  0.036  0.03   0.026  0.024  0.023  0.022  0.023  0.025  0.028
+  0.034  0.042  0.045  0.04   0.032  0.024  0.019  0.015  0.013  0.013
+  0.013  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.187]</t>
+  </si>
+  <si>
+    <t>[ 1.78453674  2.48034271  2.69229236]</t>
+  </si>
+  <si>
+    <t>[-0.17354952 -0.15996936 -0.16044633]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.   0.3]</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>[ 0.027  0.02   0.016  0.014  0.013  0.012  0.012  0.013  0.014  0.016
+  0.02   0.028  0.035  0.035  0.03   0.024  0.019  0.015  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.186]</t>
+  </si>
+  <si>
+    <t>[ 1.54275449  2.0904872   1.46907334]</t>
+  </si>
+  <si>
+    <t>[-0.18083491 -0.17467257 -0.17360771]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.   0.6]</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.017  0.014  0.012  0.011  0.01   0.01   0.011  0.012  0.014
+  0.018  0.025  0.032  0.034  0.03   0.024  0.019  0.015  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.186]</t>
+  </si>
+  <si>
+    <t>[ 1.50134305  2.01084415  1.27728823]</t>
+  </si>
+  <si>
+    <t>[-0.1817264  -0.1773441  -0.17603375]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.   0.7]</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>[ 0.208  0.218  0.216  0.202  0.179  0.155  0.132  0.115  0.099  0.086
+  0.075  0.064  0.051  0.039  0.03   0.023  0.018  0.015  0.013  0.013
+  0.013  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.188]</t>
+  </si>
+  <si>
+    <t>[  4.25499877   3.76443693  16.32562681]</t>
+  </si>
+  <si>
+    <t>[-0.05429286 -0.03917297 -0.05726527]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.025  0.   ]</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>[ 0.161  0.152  0.14   0.127  0.114  0.103  0.092  0.085  0.078  0.072
+  0.067  0.06   0.05   0.039  0.029  0.023  0.018  0.015  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.188]</t>
+  </si>
+  <si>
+    <t>[  3.27832146   3.36146832  11.0839628 ]</t>
+  </si>
+  <si>
+    <t>[-0.10101429 -0.08570362 -0.09724993]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.025  0.025]</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>[ 0.085  0.07   0.059  0.052  0.047  0.044  0.042  0.042  0.042  0.043
+  0.046  0.048  0.045  0.037  0.029  0.023  0.018  0.015  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.188]</t>
+  </si>
+  <si>
+    <t>[ 2.16342574  2.69382294  5.00494562]</t>
+  </si>
+  <si>
+    <t>[-0.1533849  -0.13978436 -0.14371368]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.025  0.125]</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>[ 0.047  0.036  0.029  0.025  0.023  0.022  0.021  0.022  0.023  0.026
+  0.03   0.036  0.038  0.035  0.028  0.022  0.018  0.015  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.187]</t>
+  </si>
+  <si>
+    <t>[ 1.72052791  2.26370139  2.59768508]</t>
+  </si>
+  <si>
+    <t>[-0.17228887 -0.16299901 -0.16407436]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.025  0.3  ]</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>[ 0.027  0.02   0.016  0.014  0.012  0.012  0.012  0.012  0.013  0.015
+  0.019  0.025  0.03   0.031  0.027  0.022  0.018  0.015  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.186]</t>
+  </si>
+  <si>
+    <t>[ 1.49484396  1.94310301  1.43693979]</t>
+  </si>
+  <si>
+    <t>[-0.17995871 -0.17612758 -0.17587519]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.025  0.6  ]</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.017  0.014  0.012  0.011  0.01   0.01   0.011  0.011  0.013
+  0.017  0.023  0.028  0.03   0.027  0.022  0.018  0.015  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.186]</t>
+  </si>
+  <si>
+    <t>[ 1.45617806  1.87605739  1.25218358]</t>
+  </si>
+  <si>
+    <t>[-0.18096885 -0.17850966 -0.17805989]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.025  0.7  ]</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>[ 0.187  0.183  0.166  0.14   0.113  0.089  0.071  0.058  0.048  0.041
+  0.036  0.032  0.028  0.024  0.02   0.017  0.015  0.014  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.188]</t>
+  </si>
+  <si>
+    <t>[  3.01584997   2.38147724  10.05718915]</t>
+  </si>
+  <si>
+    <t>[-0.10181525 -0.09527848 -0.10687304]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.125  0.   ]</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>[ 0.148  0.135  0.117  0.1    0.083  0.069  0.057  0.05   0.043  0.038
+  0.034  0.031  0.028  0.024  0.02   0.017  0.015  0.014  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.188]</t>
+  </si>
+  <si>
+    <t>[ 2.56342847  2.24454543  7.70430675]</t>
+  </si>
+  <si>
+    <t>[-0.12275094 -0.11787604 -0.12724024]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.125  0.025]</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>[ 0.082  0.066  0.054  0.047  0.041  0.036  0.033  0.031  0.029  0.028
+  0.028  0.028  0.026  0.023  0.02   0.017  0.015  0.014  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.187]</t>
+  </si>
+  <si>
+    <t>[ 1.88226916  1.96251309  4.1008952 ]</t>
+  </si>
+  <si>
+    <t>[-0.15502457 -0.15200328 -0.1574568 ]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.125  0.125]</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>[ 0.046  0.035  0.028  0.024  0.022  0.02   0.019  0.019  0.019  0.019
+  0.021  0.023  0.024  0.022  0.02   0.017  0.015  0.014  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.187]</t>
+  </si>
+  <si>
+    <t>[ 1.54704916  1.74408602  2.30363753]</t>
+  </si>
+  <si>
+    <t>[-0.17059478 -0.16923132 -0.17271164]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.125  0.3  ]</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.019  0.015  0.013  0.012  0.011  0.011  0.011  0.011  0.013
+  0.015  0.018  0.02   0.021  0.019  0.017  0.015  0.014  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.122
+  0.186]</t>
+  </si>
+  <si>
+    <t>[ 1.36251233  1.56235053  1.33136221]</t>
+  </si>
+  <si>
+    <t>[-0.17830262 -0.17914785 -0.18172327]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.125  0.6  ]</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.017  0.013  0.012  0.01   0.01   0.009  0.01   0.01   0.011
+  0.014  0.017  0.02   0.02   0.019  0.017  0.015  0.014  0.013  0.013
+  0.012  0.013  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.122
+  0.185]</t>
+  </si>
+  <si>
+    <t>[ 1.33050521  1.52225516  1.16895016]</t>
+  </si>
+  <si>
+    <t>[-0.17947255 -0.18092715 -0.18339102]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.125  0.7  ]</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>[ 0.159  0.143  0.118  0.092  0.069  0.051  0.039  0.031  0.026  0.022
+  0.019  0.017  0.016  0.014  0.013  0.012  0.012  0.012  0.012  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.187]</t>
+  </si>
+  <si>
+    <t>[ 2.19893833  1.60721488  6.22078108]</t>
+  </si>
+  <si>
+    <t>[-0.1322236  -0.13031906 -0.14036959]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.3  0. ]</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>[ 0.13   0.112  0.092  0.073  0.056  0.044  0.035  0.029  0.024  0.021
+  0.018  0.017  0.015  0.014  0.013  0.012  0.012  0.012  0.012  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.187]</t>
+  </si>
+  <si>
+    <t>[ 1.99562954  1.55710802  5.18493799]</t>
+  </si>
+  <si>
+    <t>[-0.14151089 -0.14093358 -0.15022765]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.3    0.025]</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>[ 0.076  0.06   0.048  0.04   0.033  0.028  0.024  0.021  0.019  0.017
+  0.016  0.016  0.015  0.014  0.013  0.012  0.012  0.012  0.012  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.123
+  0.186]</t>
+  </si>
+  <si>
+    <t>[ 1.61087431  1.43640551  3.1954537 ]</t>
+  </si>
+  <si>
+    <t>[-0.1597339  -0.16108529 -0.16866323]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.3    0.125]</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>[ 0.044  0.033  0.026  0.022  0.019  0.017  0.015  0.015  0.014  0.014
+  0.014  0.014  0.014  0.014  0.013  0.012  0.011  0.012  0.012  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.122
+  0.186]</t>
+  </si>
+  <si>
+    <t>[ 1.37588746  1.32849677  1.95881535]</t>
+  </si>
+  <si>
+    <t>[-0.17105781 -0.17339705 -0.17981272]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.3  0.3]</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.019  0.015  0.013  0.011  0.01   0.01   0.01   0.009  0.01
+  0.011  0.012  0.013  0.013  0.012  0.012  0.011  0.012  0.012  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.122
+  0.185]</t>
+  </si>
+  <si>
+    <t>[ 1.23126339  1.2302553   1.1958839 ]</t>
+  </si>
+  <si>
+    <t>[-0.17775357 -0.18099156 -0.1868207 ]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.3  0.6]</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>[ 0.126  0.105  0.08   0.058  0.041  0.03   0.022  0.018  0.014  0.012
+  0.01   0.01   0.009  0.008  0.008  0.008  0.008  0.01   0.011  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.122
+  0.185]</t>
+  </si>
+  <si>
+    <t>[ 1.6528606   1.1387407   3.83011146]</t>
+  </si>
+  <si>
+    <t>[-0.15189322 -0.15235528 -0.16293385]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.6  0. ]</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>[ 0.107  0.087  0.067  0.05   0.036  0.027  0.021  0.017  0.014  0.012
+  0.01   0.01   0.009  0.008  0.008  0.008  0.008  0.01   0.011  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.074  0.122
+  0.185]</t>
+  </si>
+  <si>
+    <t>[ 1.5651761   1.11989985  3.38973418]</t>
+  </si>
+  <si>
+    <t>[-0.15596087 -0.15718109 -0.1675087 ]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.6    0.025]</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>[ 0.068  0.052  0.04   0.032  0.025  0.02   0.016  0.014  0.012  0.01
+  0.01   0.009  0.009  0.008  0.008  0.008  0.008  0.01   0.011  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.073  0.122
+  0.185]</t>
+  </si>
+  <si>
+    <t>[ 1.36427312  1.06844305  2.36895306]</t>
+  </si>
+  <si>
+    <t>[-0.16557503 -0.16827723 -0.17794892]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.6    0.125]</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>[ 0.041  0.031  0.024  0.019  0.016  0.014  0.012  0.011  0.01   0.009
+  0.009  0.009  0.008  0.008  0.008  0.008  0.008  0.01   0.011  0.012
+  0.012  0.012  0.012  0.013  0.014  0.017  0.025  0.043  0.073  0.122
+  0.184]</t>
+  </si>
+  <si>
+    <t>[ 1.21326486  1.01631273  1.58903177]</t>
+  </si>
+  <si>
+    <t>[-0.17297955 -0.17650975 -0.18563285]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.6  0.3]</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>[ 0.118  0.096  0.072  0.051  0.036  0.026  0.019  0.015  0.012  0.01
+  0.009  0.008  0.008  0.007  0.007  0.007  0.008  0.01   0.011  0.012
+  0.012  0.012  0.012  0.012  0.014  0.017  0.025  0.043  0.073  0.122
+  0.185]</t>
+  </si>
+  <si>
+    <t>[ 1.54996096  1.05426051  3.40162404]</t>
+  </si>
+  <si>
+    <t>[-0.15551003 -0.15634378 -0.16718369]</t>
+  </si>
+  <si>
+    <t>[ 0.6  0.7  0. ]</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>[ 0.102  0.081  0.061  0.045  0.033  0.024  0.018  0.015  0.012  0.01
+  0.009  0.008  0.008  0.007  0.007  0.007  0.008  0.01   0.011  0.012
+  0.012  0.012  0.012  0.012  0.014  0.017  0.025  0.043  0.073  0.122
+  0.185]</t>
+  </si>
+  <si>
+    <t>[ 1.4789182   1.0393801   3.04583471]</t>
+  </si>
+  <si>
+    <t>[-0.15883282 -0.16031345 -0.17096395]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.7    0.025]</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>[ 0.065  0.05   0.038  0.03   0.023  0.018  0.015  0.012  0.011  0.009
+  0.008  0.008  0.008  0.007  0.007  0.007  0.008  0.01   0.011  0.012
+  0.012  0.012  0.012  0.012  0.014  0.017  0.025  0.043  0.073  0.122
+  0.184]</t>
+  </si>
+  <si>
+    <t>[ 1.30930509  0.99762685  2.18715154]</t>
+  </si>
+  <si>
+    <t>[-0.16699144 -0.16981409 -0.17995852]</t>
+  </si>
+  <si>
+    <t>[ 0.6    0.7    0.125]</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>[ 0.197  0.211  0.215  0.208  0.192  0.172  0.153  0.136  0.12   0.105
+  0.091  0.075  0.056  0.04   0.029  0.021  0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[  4.37092275   4.03896478  17.84029601]</t>
+  </si>
+  <si>
+    <t>[-0.04432192 -0.02561852 -0.0530453 ]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.   0. ]</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>[ 0.154  0.149  0.139  0.129  0.119  0.11   0.102  0.096  0.09   0.085
+  0.079  0.069  0.054  0.04   0.029  0.021  0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[  3.26365893   3.52122283  11.80977348]</t>
+  </si>
+  <si>
+    <t>[-0.09800417 -0.07741833 -0.09668721]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.     0.025]</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>[ 0.084  0.069  0.059  0.052  0.048  0.045  0.044  0.044  0.045  0.048
+  0.052  0.054  0.049  0.038  0.028  0.021  0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[ 2.06118194  2.7152215   5.16990987]</t>
+  </si>
+  <si>
+    <t>[-0.15424349 -0.13502703 -0.14578968]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.     0.125]</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>[ 0.047  0.036  0.029  0.026  0.023  0.022  0.022  0.023  0.024  0.027
+  0.033  0.039  0.041  0.036  0.028  0.021  0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[ 1.60073061  2.2263046   2.64669174]</t>
+  </si>
+  <si>
+    <t>[-0.17349532 -0.15928419 -0.16701085]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.   0.3]</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.02   0.016  0.014  0.013  0.012  0.012  0.012  0.013  0.016
+  0.02   0.026  0.032  0.032  0.026  0.021  0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 1.36976262  1.87645985  1.45328798]</t>
+  </si>
+  <si>
+    <t>[-0.1810303  -0.17303863 -0.17929177]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.   0.6]</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.017  0.014  0.012  0.011  0.01   0.01   0.011  0.012  0.014
+  0.018  0.024  0.03   0.031  0.026  0.021  0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 1.33048208  1.80485059  1.26483588]</t>
+  </si>
+  <si>
+    <t>[-0.18199466 -0.17553992 -0.18155419]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.   0.7]</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>[ 0.192  0.201  0.2    0.186  0.165  0.143  0.122  0.105  0.091  0.079
+  0.068  0.058  0.046  0.035  0.026  0.02   0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[  3.85001798   3.37591827  15.02965868]</t>
+  </si>
+  <si>
+    <t>[-0.0649003  -0.04980788 -0.07339094]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.025  0.   ]</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>[ 0.151  0.144  0.133  0.121  0.109  0.097  0.087  0.08   0.073  0.067
+  0.062  0.055  0.045  0.034  0.026  0.02   0.016  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[  3.00020989   3.03078696  10.47158504]</t>
+  </si>
+  <si>
+    <t>[-0.10557187 -0.09028923 -0.10819382]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.025  0.025]</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>[ 0.083  0.068  0.058  0.051  0.046  0.043  0.041  0.04   0.04   0.041
+  0.044  0.045  0.041  0.033  0.026  0.02   0.015  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[ 1.97211264  2.43716676  4.86880867]</t>
+  </si>
+  <si>
+    <t>[-0.15406348 -0.13998665 -0.15086161]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.025  0.125]</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>[ 0.046  0.036  0.029  0.025  0.023  0.022  0.021  0.022  0.023  0.025
+  0.029  0.034  0.035  0.031  0.025  0.02   0.015  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[ 1.54846521  2.04678765  2.55685853]</t>
+  </si>
+  <si>
+    <t>[-0.17249722 -0.16194073 -0.17006676]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.025  0.3  ]</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.02   0.016  0.014  0.012  0.012  0.012  0.012  0.013  0.015
+  0.018  0.024  0.028  0.028  0.024  0.019  0.015  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 1.3313229   1.75435647  1.42257121]</t>
+  </si>
+  <si>
+    <t>[-0.18026622 -0.1743961  -0.18121506]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.025  0.6  ]</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[ 0.023  0.017  0.014  0.012  0.011  0.01   0.01   0.011  0.011  0.013
+  0.016  0.022  0.027  0.027  0.024  0.019  0.015  0.013  0.012  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 1.29431025  1.69318642  1.24082538]</t>
+  </si>
+  <si>
+    <t>[-0.18132023 -0.17665662 -0.18327409]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.025  0.7  ]</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>[ 0.173  0.171  0.156  0.132  0.107  0.085  0.068  0.056  0.046  0.04
+  0.034  0.031  0.026  0.022  0.018  0.015  0.013  0.012  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[ 2.77773887  2.19426891  9.54906171]</t>
+  </si>
+  <si>
+    <t>[-0.10660863 -0.09870257 -0.11626059]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.125  0.   ]</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>[ 0.14   0.128  0.112  0.096  0.08   0.066  0.055  0.048  0.041  0.036
+  0.033  0.03   0.026  0.022  0.018  0.015  0.013  0.012  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[ 2.36623398  2.06914785  7.40659223]</t>
+  </si>
+  <si>
+    <t>[-0.12566415 -0.11919908 -0.13470247]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.125  0.025]</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>[ 0.079  0.064  0.053  0.046  0.04   0.036  0.032  0.03   0.028  0.027
+  0.027  0.027  0.025  0.021  0.018  0.015  0.013  0.012  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.169]</t>
+  </si>
+  <si>
+    <t>[ 1.72525662  1.80621557  4.01350083]</t>
+  </si>
+  <si>
+    <t>[-0.15602541 -0.15119846 -0.16299205]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.125  0.125]</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>[ 0.045  0.035  0.028  0.024  0.021  0.02   0.019  0.018  0.018  0.019
+  0.02   0.022  0.022  0.021  0.018  0.015  0.013  0.012  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 1.40139888  1.60024496  2.27407423]</t>
+  </si>
+  <si>
+    <t>[-0.17112812 -0.16777725 -0.17762897]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.125  0.3  ]</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>[ 0.026  0.019  0.015  0.013  0.012  0.011  0.011  0.011  0.011  0.012
+  0.015  0.018  0.019  0.019  0.017  0.015  0.013  0.012  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.167]</t>
+  </si>
+  <si>
+    <t>[ 1.2215868   1.4286251   1.32041329]</t>
+  </si>
+  <si>
+    <t>[-0.17875382 -0.17741141 -0.18632265]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.125  0.6  ]</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>[ 0.149  0.136  0.113  0.088  0.066  0.05   0.038  0.031  0.025  0.021
+  0.018  0.017  0.015  0.014  0.012  0.011  0.01   0.011  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 2.03638254  1.49485614  6.01505564]</t>
+  </si>
+  <si>
+    <t>[-0.13456913 -0.13102417 -0.14673519]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.3  0. ]</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>[ 0.123  0.107  0.089  0.071  0.055  0.043  0.034  0.028  0.023  0.02
+  0.018  0.017  0.015  0.014  0.012  0.011  0.01   0.011  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 1.84617251  1.4475528   5.04462346]</t>
+  </si>
+  <si>
+    <t>[-0.1432449  -0.14090335 -0.15589112]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.3    0.025]</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>[ 0.074  0.059  0.047  0.039  0.033  0.028  0.023  0.021  0.019  0.017
+  0.016  0.016  0.014  0.013  0.012  0.011  0.01   0.011  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.168]</t>
+  </si>
+  <si>
+    <t>[ 1.47873141  1.33215993  3.14275466]</t>
+  </si>
+  <si>
+    <t>[-0.16060524 -0.1600474  -0.17336394]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.3    0.125]</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>[ 0.043  0.033  0.026  0.022  0.019  0.017  0.015  0.014  0.014  0.013
+  0.013  0.014  0.014  0.013  0.012  0.011  0.01   0.011  0.011  0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.065  0.109
+  0.167]</t>
+  </si>
+  <si>
+    <t>[ 1.25016406  1.22813437  1.93842973]</t>
+  </si>
+  <si>
+    <t>[-0.17161169 -0.17198644 -0.18413641]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.3  0.3]</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>[ 0.12   0.101  0.077  0.056  0.04   0.029  0.022  0.017  0.014  0.012
+  0.01   0.009  0.009  0.008  0.008  0.007  0.008  0.009  0.01   0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.064  0.108
+  0.167]</t>
+  </si>
+  <si>
+    <t>[ 1.52806127  1.06002265  3.74706115]</t>
+  </si>
+  <si>
+    <t>[-0.15313841 -0.15198249 -0.16788099]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.6  0. ]</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>[ 0.103  0.084  0.065  0.049  0.036  0.027  0.02   0.016  0.013  0.011
+  0.01   0.009  0.009  0.008  0.008  0.007  0.008  0.009  0.01   0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.064  0.108
+  0.167]</t>
+  </si>
+  <si>
+    <t>[ 1.44439008  1.04189398  3.32630221]</t>
+  </si>
+  <si>
+    <t>[-0.1569992  -0.1565487  -0.17219912]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.6    0.025]</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>[ 0.066  0.051  0.04   0.031  0.025  0.02   0.016  0.014  0.012  0.01
+  0.009  0.009  0.009  0.008  0.008  0.007  0.008  0.009  0.01   0.011
+  0.011  0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.064  0.108
+  0.167]</t>
+  </si>
+  <si>
+    <t>[ 1.2503446   0.99199169  2.33929174]</t>
+  </si>
+  <si>
+    <t>[-0.16624233 -0.16719058 -0.18218191]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.6    0.125]</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>[ 0.113  0.093  0.07   0.05   0.036  0.026  0.019  0.015  0.012  0.01
+  0.009  0.008  0.008  0.007  0.007  0.007  0.007  0.009  0.01   0.01
+  0.01   0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.064  0.108
+  0.166]</t>
+  </si>
+  <si>
+    <t>[ 1.43134522  0.98081888  3.33513497]</t>
+  </si>
+  <si>
+    <t>[-0.15659336 -0.15582129 -0.17191205]</t>
+  </si>
+  <si>
+    <t>[ 0.7  0.7  0. ]</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>[ 0.098  0.079  0.06   0.044  0.032  0.024  0.018  0.014  0.012  0.01
+  0.009  0.008  0.008  0.007  0.007  0.007  0.007  0.009  0.01   0.01
+  0.01   0.011  0.01   0.011  0.012  0.015  0.022  0.037  0.064  0.108
+  0.166]</t>
+  </si>
+  <si>
+    <t>[ 1.36328876  0.96645167  2.99387577]</t>
+  </si>
+  <si>
+    <t>[-0.15975656 -0.15958923 -0.17549086]</t>
+  </si>
+  <si>
+    <t>[ 0.7    0.7    0.025]</t>
   </si>
 </sst>
 </file>
@@ -1367,17 +3923,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="179" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,6 +4854,2420 @@
         <v>269</v>
       </c>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Example 5/output/Samples_table.xlsx
+++ b/Example 5/output/Samples_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Thesis\ColorMatching\Example 5\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A1747-3062-467B-9729-FEDA03C4695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E41D97-8562-402E-A58D-1D87ADCD6D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="4155" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="7095" windowWidth="7200" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Example 5/output/Samples_table.xlsx
+++ b/Example 5/output/Samples_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Thesis\ColorMatching\Example 5\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E41D97-8562-402E-A58D-1D87ADCD6D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84FDF0-BBEF-4F88-835F-3661E21E0DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7680" yWindow="7095" windowWidth="7200" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Example 5/output/Samples_table.xlsx
+++ b/Example 5/output/Samples_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Thesis\ColorMatching\Example 5\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84FDF0-BBEF-4F88-835F-3661E21E0DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE41CBFE-7AEE-4CE3-8943-DA227E61B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="7095" windowWidth="7200" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
